--- a/TCS_NEWUI_Search options.xlsx
+++ b/TCS_NEWUI_Search options.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E838C7C-23DB-40BF-8A59-FB6AAB9FFE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{24948BE7-F44E-4BEA-9AF7-F64248DC213F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -46,9 +40,9 @@
     <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -62,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="261">
   <si>
     <t>US#</t>
   </si>
@@ -539,38 +533,6 @@
     <t>Verify the day option above the Calendar</t>
   </si>
   <si>
-    <t>1. The Custom range should be selected
-2. User should be able to select day wise range from the Calendar</t>
-  </si>
-  <si>
-    <t>Verify the Week option above the Calendar</t>
-  </si>
-  <si>
-    <t>1. The Custom range should be selected
-2. User should be able to select Weekly date range from the Calendar</t>
-  </si>
-  <si>
-    <t>Verify the Monthly option above the Calendar</t>
-  </si>
-  <si>
-    <t>1. The Custom range should be selected
-2. User should be able to select date range Monthly from the Calendar</t>
-  </si>
-  <si>
-    <t>Verify the Quarter option above the Calendar</t>
-  </si>
-  <si>
-    <t>1. The Custom range should be selected
-2. User should be able to select date range in Quarters from the Calendar</t>
-  </si>
-  <si>
-    <t>Verify the Yearly option above the Calendar</t>
-  </si>
-  <si>
-    <t>1. The Custom range should be selected
-2. User should be able to select date range Yearly from the Calendar</t>
-  </si>
-  <si>
     <t>Verify Ad Status Search Option in All tabs as well as in its individual tab</t>
   </si>
   <si>
@@ -578,9 +540,6 @@
   </si>
   <si>
     <t>Verify Default options in Date Range search option in All Fields tab as well as in its individual tab</t>
-  </si>
-  <si>
-    <t>Verify it in both All fields tab as well as its individual tab</t>
   </si>
   <si>
     <t>Verify the Media option in All tabs and In its individual tab</t>
@@ -656,9 +615,6 @@
     <t>Click on Apply button</t>
   </si>
   <si>
-    <t>The Filters selected by the user should be applied on the report data on clicking the Apply button</t>
-  </si>
-  <si>
     <t>US:WEB-7626_TC 18</t>
   </si>
   <si>
@@ -671,13 +627,7 @@
     <t xml:space="preserve">Select Filters/options from the Search Modal </t>
   </si>
   <si>
-    <t>The options should be Selected and Reset All button should be Enabled</t>
-  </si>
-  <si>
     <t>Select Reset All button</t>
-  </si>
-  <si>
-    <t>All the options selected should be Reset to the default options</t>
   </si>
   <si>
     <t>US:WEB-7626_TC 19</t>
@@ -943,11 +893,92 @@
   <si>
     <t>US:WEB-7626_TC 13</t>
   </si>
+  <si>
+    <t>SMRT-7418,7782</t>
+  </si>
+  <si>
+    <t>As a SMART User, I want to have the ability to understand Search options functionality</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>Click on Week option above the Calendar</t>
+  </si>
+  <si>
+    <t>Click on Month option above the Calendar</t>
+  </si>
+  <si>
+    <t>Click on Quarter option above the Calendar</t>
+  </si>
+  <si>
+    <t>Click on Year option above the Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Day option should be default selected
+2. User can select days from date range </t>
+  </si>
+  <si>
+    <t>1. The Custom range should be selected
+2. User can select only weeks from the Calendar (cant select days)</t>
+  </si>
+  <si>
+    <t>1. The Custom range should be selected
+2. Month should be displayed on Calendar
+3.  User can select only Months from the Calendar (cant select days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Custom range should be selected
+2. Year should be displayed on Calendar
+3. User can select only Year from the Calendar (cant select days or week)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Custom range should be selected
+2. Quarters should be displayed on Calendar
+3. User can select only Quarters from the Calendar (cant select days or week)
+</t>
+  </si>
+  <si>
+    <t>1.The options should be Selected and Reset All button should be Enabled
+2. Also change day option to Year in Date range</t>
+  </si>
+  <si>
+    <t>1.All the options selected should be Reset to the default options
+2. Also in Date range selected "Year" option should be Reset to "Day"</t>
+  </si>
+  <si>
+    <t>SMRT-8046</t>
+  </si>
+  <si>
+    <t>Verify Search options pop up window should not close while click outside of pop up</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 29</t>
+  </si>
+  <si>
+    <t>Click on Search options button at the bottom right corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search options Modal window should open with All fields as per the Account and Report selected
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on outside of pop up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search options Modal window should not be closed
+</t>
+  </si>
+  <si>
+    <t>1. The Filters selected by the user should be applied on the report 
+2. Search options Modal window should be closed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1869,14 +1900,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1888,6 +1919,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,15 +1935,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1925,23 +1956,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="15" xr:uid="{7C4AE2F6-F48E-4C74-93E8-446EE44EE508}"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="13" xr:uid="{893B095B-013D-4506-9986-F452B12B920C}"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="11" xr:uid="{D1A2771F-60C6-4240-82E8-8E6319A54DAD}"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="1" xr:uid="{3D7AE56F-34CD-400E-BA6D-AAD3FE78D427}"/>
-    <cellStyle name="Comma [0] 2" xfId="8" xr:uid="{C70FAD4A-663A-41D6-AE2D-00B9A7E053BA}"/>
-    <cellStyle name="Comma [0] 3" xfId="9" xr:uid="{DAFC68C9-0E88-41BD-8826-C06BF4B921BC}"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="14" xr:uid="{0A7E0993-A444-4FFB-AE83-3A5FC57A2A5C}"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="15"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="13"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="11"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="1"/>
+    <cellStyle name="Comma [0] 2" xfId="8"/>
+    <cellStyle name="Comma [0] 3" xfId="9"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="14"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{02427379-CB55-42C2-89FF-DC3A1BDF1C21}"/>
+    <cellStyle name="Hyperlink 2" xfId="12"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{DBEDEAC3-54AB-4BBF-8F7E-9ADB46A21807}"/>
-    <cellStyle name="Normal 2 4 2" xfId="10" xr:uid="{6586DCAB-C97B-4AD0-A782-9C9485892767}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="6" xr:uid="{C409EDF2-89BE-4DFC-9549-D06D48CE72AA}"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="2" xr:uid="{1340F9CF-6385-4793-9938-CD0A22337B2A}"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="4" xr:uid="{EF6168A4-6D6D-4F85-9925-6C04400B98C1}"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="7" xr:uid="{7DE28270-B33D-4ED8-8029-DE32734B8E04}"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="5" xr:uid="{BB2F8CE1-CC9E-48BC-8A0B-B6BDCF9F4F66}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 4 2" xfId="10"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="6"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="2"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="4"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="7"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1957,18 +1988,10 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="148"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="48"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="48"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1991,25 +2014,22 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3923741222529194E-2"/>
-          <c:y val="0.1418565099457787"/>
+          <c:x val="5.3923741222529187E-2"/>
+          <c:y val="0.14185650994577867"/>
           <c:w val="0.90694002510216154"/>
-          <c:h val="0.75521895211321821"/>
+          <c:h val="0.75521895211321877"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2024,11 +2044,8 @@
               <a:bevelT w="63500" h="25400"/>
             </a:sp3d>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2045,7 +2062,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2053,8 +2070,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="E22B00"/>
@@ -2069,7 +2084,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2077,8 +2092,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -2093,7 +2106,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2101,8 +2114,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -2117,7 +2128,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2141,14 +2152,8 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2181,7 +2186,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2195,34 +2200,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1420334192"/>
-        <c:axId val="1420343440"/>
+        <c:axId val="48867968"/>
+        <c:axId val="48886144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1420334192"/>
+        <c:axId val="48867968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2236,32 +2229,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1420343440"/>
+        <c:crossAx val="48886144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1420343440"/>
+        <c:axId val="48886144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1420334192"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="48867968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:effectLst/>
@@ -2275,25 +2264,17 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="145"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="45"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="45"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2316,24 +2297,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="32"/>
-      <c:rAngAx val="0"/>
       <c:perspective val="90"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2341,9 +2310,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8831278392536694E-2"/>
-          <c:y val="0.14624350369603381"/>
-          <c:w val="0.92496729254319687"/>
-          <c:h val="0.69766331701963358"/>
+          <c:y val="0.14624350369603398"/>
+          <c:w val="0.92496729254319798"/>
+          <c:h val="0.69766331701963369"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -2353,7 +2322,6 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2362,7 +2330,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
               </c:ext>
@@ -2370,7 +2338,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:explosion val="19"/>
             <c:spPr>
               <a:solidFill>
@@ -2380,7 +2347,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
               </c:ext>
@@ -2404,17 +2371,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2433,17 +2389,6 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -2452,14 +2397,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2492,20 +2432,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -2521,16 +2455,14 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.270891046791853"/>
-          <c:y val="0.88141746683253508"/>
-          <c:w val="0.42791036796598075"/>
+          <c:y val="0.88141746683253441"/>
+          <c:w val="0.42791036796598148"/>
           <c:h val="7.1280252974084315E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln w="0"/>
@@ -2544,7 +2476,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2552,20 +2484,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2573,9 +2494,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.27595722641494741"/>
-          <c:y val="7.1365887012686355E-2"/>
-          <c:w val="0.29672375522792593"/>
-          <c:h val="0.85466509216403797"/>
+          <c:y val="7.1365887012686424E-2"/>
+          <c:w val="0.29672375522792621"/>
+          <c:h val="0.85466509216403885"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2590,7 +2511,6 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -2599,7 +2519,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2607,7 +2527,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2616,7 +2535,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2624,7 +2543,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -2633,7 +2551,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2641,7 +2559,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -2650,7 +2567,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2683,7 +2600,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2697,21 +2614,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0173-4321-8CAC-88CA7EFFE04D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2792,13 +2700,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.72165251246917395"/>
-          <c:y val="3.608395161789857E-3"/>
+          <c:x val="0.72165251246917539"/>
+          <c:y val="3.6083951617898605E-3"/>
           <c:w val="0.24112408909611374"/>
-          <c:h val="0.95693837006674265"/>
+          <c:h val="0.95693837006674254"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2825,7 +2732,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2857,7 +2763,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2883,7 +2789,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F95FA3-3A9A-4305-AFFA-52E4BAA24C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93F95FA3-3A9A-4305-AFFA-52E4BAA24C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +2827,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9531D562-F1AE-493E-B6CF-CF69549BAA21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9531D562-F1AE-493E-B6CF-CF69549BAA21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2865,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08B4E06-2AF6-4DF7-B7CF-932CD9795B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D08B4E06-2AF6-4DF7-B7CF-932CD9795B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,10 +2874,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2991,7 +2897,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3063,7 +2969,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7E65A0-4003-44F1-85A9-FCE7EDFBA4CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB7E65A0-4003-44F1-85A9-FCE7EDFBA4CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3103,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3247,7 +3153,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E36E588-14AD-46D7-8AF0-1D090F285222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E36E588-14AD-46D7-8AF0-1D090F285222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3365,7 +3271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3559,14 +3465,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAFA064-7398-45ED-96EF-9A16F2B9BCC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,11 +3536,11 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="67" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B8" s="61">
         <f>'Search Options'!C11</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="61">
         <f>'Search Options'!C12</f>
@@ -3650,7 +3556,7 @@
       </c>
       <c r="F8" s="61">
         <f>SUM(B8:E8)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="62">
         <f>(B8+C8+D8)/(F8)</f>
@@ -3672,7 +3578,7 @@
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="64">
         <f>SUM(C8:C9)</f>
@@ -3688,7 +3594,7 @@
       </c>
       <c r="F10" s="64">
         <f>SUM(F8:F9)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="65">
         <f>SUM(G8:G8)</f>
@@ -3712,7 +3618,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Search Options'!A1" display="Redesign - Search Options" xr:uid="{2003B564-8942-4798-AC47-C1DEB0BBE807}"/>
+    <hyperlink ref="A8" location="'Search Options'!A1" display="Redesign - Search Options"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3721,20 +3627,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9155B8-21C3-4827-981C-960CD77825B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="127.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" style="2" customWidth="1"/>
-    <col min="5" max="256" width="9" style="2"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="256" width="9" style="2"/>
     <col min="257" max="257" width="71.85546875" style="2" customWidth="1"/>
     <col min="258" max="258" width="18.5703125" style="2" customWidth="1"/>
     <col min="259" max="259" width="94.85546875" style="2" customWidth="1"/>
@@ -4001,7 +3906,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="77"/>
+      <c r="A2" s="77" t="s">
+        <v>240</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,7 +4023,9 @@
       <c r="C12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="77"/>
@@ -4176,7 +4085,7 @@
       <c r="B18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="68" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="4"/>
@@ -4264,7 +4173,7 @@
         <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -4300,12 +4209,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="77"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="77"/>
-      <c r="B31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
     </row>
@@ -4587,10 +4503,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09530D8C-EE5E-45D3-A756-1F9B43DB51AF}">
-  <dimension ref="A1:H963"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H962"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -5328,7 +5246,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="24">
-        <v>43818</v>
+        <v>43999</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="15"/>
@@ -5336,8 +5254,8 @@
         <v>30</v>
       </c>
       <c r="G7" s="26">
-        <f>COUNTIF(G11:G1089,"Pass")</f>
-        <v>27</v>
+        <f>COUNTIF(G11:G1088,"Pass")</f>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5352,7 +5270,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="26">
-        <f>COUNTIF(G12:G1090,"Fail")</f>
+        <f>COUNTIF(G12:G1089,"Fail")</f>
         <v>1</v>
       </c>
     </row>
@@ -5370,7 +5288,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="26">
-        <f>COUNTIF(G13:G1091,"Blocked")</f>
+        <f>COUNTIF(G13:G1090,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -5386,7 +5304,7 @@
         <v>37</v>
       </c>
       <c r="G10" s="26">
-        <f>COUNTIF(G14:G1092,"Not Executed")</f>
+        <f>COUNTIF(G14:G1091,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
@@ -5397,7 +5315,7 @@
       </c>
       <c r="C11" s="17">
         <f>G7</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
@@ -5463,7 +5381,7 @@
     </row>
     <row r="17" spans="1:7" s="38" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="95" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B17" s="95"/>
       <c r="C17" s="95"/>
@@ -5500,14 +5418,14 @@
       <c r="A19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:7" s="38" customFormat="1">
       <c r="A20" s="46" t="s">
@@ -5572,12 +5490,12 @@
       <c r="A23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="39" t="s">
@@ -5607,14 +5525,14 @@
       <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="46" t="s">
@@ -5681,7 +5599,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
@@ -5695,10 +5613,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="51"/>
@@ -5711,12 +5629,12 @@
       <c r="A31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="89"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
       <c r="A32" s="39" t="s">
@@ -5746,14 +5664,14 @@
       <c r="A33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="46" t="s">
@@ -5820,7 +5738,7 @@
         <v>130</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
@@ -5833,12 +5751,12 @@
       <c r="A38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A39" s="39" t="s">
@@ -5862,14 +5780,14 @@
       <c r="A40" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80"/>
+      <c r="B40" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
       <c r="A41" s="46" t="s">
@@ -5949,12 +5867,12 @@
       <c r="A45" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
       <c r="A46" s="39" t="s">
@@ -5984,14 +5902,14 @@
       <c r="A47" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
       <c r="A48" s="46" t="s">
@@ -6054,12 +5972,12 @@
       <c r="A51" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
       <c r="A52" s="39" t="s">
@@ -6089,14 +6007,14 @@
       <c r="A53" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="80"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="86"/>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
       <c r="A54" s="46" t="s">
@@ -6159,12 +6077,12 @@
       <c r="A57" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
       <c r="A58" s="39" t="s">
@@ -6194,14 +6112,14 @@
       <c r="A59" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="84" t="s">
+      <c r="B59" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="89"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
       <c r="A60" s="46" t="s">
@@ -6265,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
@@ -6298,12 +6216,12 @@
       <c r="A65" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="89"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="39" t="s">
@@ -6333,14 +6251,14 @@
       <c r="A67" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="80"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="86"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
       <c r="A68" s="46" t="s">
@@ -6404,10 +6322,10 @@
         <v>3</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
@@ -6420,12 +6338,12 @@
       <c r="A72" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="89"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="80"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
       <c r="A73" s="39" t="s">
@@ -6455,14 +6373,14 @@
       <c r="A74" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="84" t="s">
+      <c r="B74" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="86"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="89"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A75" s="46" t="s">
@@ -6543,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C79" s="49" t="s">
         <v>140</v>
@@ -6580,12 +6498,12 @@
       <c r="A81" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="89"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="80"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A82" s="39" t="s">
@@ -6615,14 +6533,14 @@
       <c r="A83" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="80"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="86"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="46" t="s">
@@ -6703,7 +6621,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C88" s="49" t="s">
         <v>140</v>
@@ -6720,13 +6638,13 @@
         <v>5</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C89" s="49" t="s">
         <v>144</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E89" s="49"/>
       <c r="F89" s="50" t="s">
@@ -6755,12 +6673,12 @@
       <c r="A91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="89"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="80"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A92" s="39" t="s">
@@ -6783,21 +6701,21 @@
       </c>
       <c r="G92" s="44" t="str">
         <f>IF(COUNTIF(F95:F102,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F95:F102,"Fail")&gt;0,"Fail",IF(COUNTIF(F95:F102,"")=0,"Pass","Not Executed")))</f>
-        <v>Fail</v>
+        <v>Pass</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A93" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="78" t="s">
+      <c r="B93" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="80"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="86"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
       <c r="A94" s="46" t="s">
@@ -6881,82 +6799,80 @@
         <v>147</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
       <c r="F98" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" s="51" t="s">
-        <v>160</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G98" s="51"/>
     </row>
     <row r="99" spans="1:8" s="8" customFormat="1" ht="30">
       <c r="A99" s="47">
         <v>5</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
       <c r="F99" s="50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G99" s="51"/>
     </row>
-    <row r="100" spans="1:8" ht="30">
+    <row r="100" spans="1:8" ht="45">
       <c r="A100" s="47">
         <v>6</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="D100" s="49"/>
       <c r="E100" s="49"/>
       <c r="F100" s="50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G100" s="51"/>
     </row>
-    <row r="101" spans="1:8" ht="30">
+    <row r="101" spans="1:8" ht="60">
       <c r="A101" s="47">
         <v>7</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
       <c r="F101" s="50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101" s="51"/>
     </row>
-    <row r="102" spans="1:8" ht="30">
+    <row r="102" spans="1:8" ht="60">
       <c r="A102" s="47">
         <v>8</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
       <c r="F102" s="50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G102" s="51"/>
     </row>
@@ -6964,12 +6880,12 @@
       <c r="A103" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="87"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="89"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="80"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="39" t="s">
@@ -6999,14 +6915,14 @@
       <c r="A105" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="79"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="80"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="86"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="46" t="s">
@@ -7070,10 +6986,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -7087,10 +7003,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="49" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D110" s="49"/>
       <c r="E110" s="49"/>
@@ -7103,16 +7019,16 @@
       <c r="A111" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="89"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="80"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="39" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B112" s="81" t="s">
         <v>92</v>
@@ -7139,14 +7055,14 @@
       <c r="A113" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="78" t="s">
+      <c r="B113" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="79"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="80"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="86"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="46" t="s">
@@ -7210,10 +7126,10 @@
         <v>3</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D117" s="49"/>
       <c r="E117" s="49"/>
@@ -7227,10 +7143,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="49" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D118" s="49"/>
       <c r="E118" s="49"/>
@@ -7243,16 +7159,16 @@
       <c r="A119" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="89"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="80"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="39" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B120" s="81" t="s">
         <v>81</v>
@@ -7278,14 +7194,14 @@
       <c r="A121" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="78" t="s">
+      <c r="B121" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C121" s="79"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="79"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="80"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="86"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="46" t="s">
@@ -7349,10 +7265,10 @@
         <v>3</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
@@ -7366,13 +7282,13 @@
         <v>4</v>
       </c>
       <c r="B126" s="49" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C126" s="49" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E126" s="49"/>
       <c r="F126" s="50" t="s">
@@ -7384,16 +7300,16 @@
       <c r="A127" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="87"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="88"/>
-      <c r="E127" s="88"/>
-      <c r="F127" s="88"/>
-      <c r="G127" s="89"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="80"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="39" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B128" s="81" t="s">
         <v>82</v>
@@ -7419,14 +7335,14 @@
       <c r="A129" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="78" t="s">
+      <c r="B129" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="79"/>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="80"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="86"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="46" t="s">
@@ -7490,10 +7406,10 @@
         <v>3</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C133" s="49" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D133" s="49"/>
       <c r="E133" s="49"/>
@@ -7507,10 +7423,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="49" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D134" s="49"/>
       <c r="E134" s="49"/>
@@ -7523,16 +7439,16 @@
       <c r="A135" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B135" s="87"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="88"/>
-      <c r="E135" s="88"/>
-      <c r="F135" s="88"/>
-      <c r="G135" s="89"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="80"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="39" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B136" s="81" t="s">
         <v>83</v>
@@ -7558,14 +7474,14 @@
       <c r="A137" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="78" t="s">
+      <c r="B137" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C137" s="79"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="80"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="86"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="46" t="s">
@@ -7629,10 +7545,10 @@
         <v>3</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C141" s="49" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D141" s="49"/>
       <c r="E141" s="49"/>
@@ -7646,10 +7562,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="49" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C142" s="49" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="D142" s="49"/>
       <c r="E142" s="49"/>
@@ -7662,16 +7578,16 @@
       <c r="A143" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B143" s="87"/>
-      <c r="C143" s="88"/>
-      <c r="D143" s="88"/>
-      <c r="E143" s="88"/>
-      <c r="F143" s="88"/>
-      <c r="G143" s="89"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="80"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="39" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B144" s="81" t="s">
         <v>93</v>
@@ -7697,14 +7613,14 @@
       <c r="A145" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B145" s="78" t="s">
+      <c r="B145" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C145" s="79"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="80"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="86"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="46" t="s">
@@ -7768,10 +7684,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C149" s="49" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D149" s="49"/>
       <c r="E149" s="49"/>
@@ -7780,15 +7696,15 @@
       </c>
       <c r="G149" s="51"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75">
+    <row r="150" spans="1:7" ht="30">
       <c r="A150" s="47">
         <v>4</v>
       </c>
       <c r="B150" s="49" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C150" s="49" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="D150" s="49"/>
       <c r="E150" s="49"/>
@@ -7797,15 +7713,15 @@
       </c>
       <c r="G150" s="51"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75">
+    <row r="151" spans="1:7" ht="30">
       <c r="A151" s="47">
         <v>5</v>
       </c>
       <c r="B151" s="49" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C151" s="49" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
@@ -7818,16 +7734,16 @@
       <c r="A152" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="87"/>
-      <c r="C152" s="88"/>
-      <c r="D152" s="88"/>
-      <c r="E152" s="88"/>
-      <c r="F152" s="88"/>
-      <c r="G152" s="89"/>
+      <c r="B152" s="78"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="80"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="39" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B153" s="81" t="s">
         <v>84</v>
@@ -7853,14 +7769,14 @@
       <c r="A154" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B154" s="78" t="s">
+      <c r="B154" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C154" s="79"/>
-      <c r="D154" s="79"/>
-      <c r="E154" s="79"/>
-      <c r="F154" s="79"/>
-      <c r="G154" s="80"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="86"/>
     </row>
     <row r="155" spans="1:7" ht="30.95" customHeight="1">
       <c r="A155" s="46" t="s">
@@ -7924,10 +7840,10 @@
         <v>3</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C158" s="49" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D158" s="49"/>
       <c r="E158" s="49"/>
@@ -7940,16 +7856,16 @@
       <c r="A159" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B159" s="87"/>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="88"/>
-      <c r="F159" s="88"/>
-      <c r="G159" s="89"/>
+      <c r="B159" s="78"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="80"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="39" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B160" s="81" t="s">
         <v>96</v>
@@ -7975,14 +7891,14 @@
       <c r="A161" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="78" t="s">
+      <c r="B161" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C161" s="79"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="79"/>
-      <c r="F161" s="79"/>
-      <c r="G161" s="80"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="86"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="46" t="s">
@@ -8046,13 +7962,13 @@
         <v>3</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C165" s="49" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D165" s="49" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E165" s="49"/>
       <c r="F165" s="50" t="s">
@@ -8065,10 +7981,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C166" s="49" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -8081,16 +7997,16 @@
       <c r="A167" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="87"/>
-      <c r="C167" s="88"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="88"/>
-      <c r="F167" s="88"/>
-      <c r="G167" s="89"/>
+      <c r="B167" s="78"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="79"/>
+      <c r="F167" s="79"/>
+      <c r="G167" s="80"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="39" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B168" s="81" t="s">
         <v>98</v>
@@ -8116,14 +8032,14 @@
       <c r="A169" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B169" s="78" t="s">
+      <c r="B169" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="79"/>
-      <c r="D169" s="79"/>
-      <c r="E169" s="79"/>
-      <c r="F169" s="79"/>
-      <c r="G169" s="80"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="86"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="46" t="s">
@@ -8159,7 +8075,7 @@
         <v>121</v>
       </c>
       <c r="D171" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E171" s="49"/>
       <c r="F171" s="50" t="s">
@@ -8189,10 +8105,10 @@
         <v>3</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C173" s="49" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -8206,10 +8122,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="49" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C174" s="49" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
@@ -8222,16 +8138,16 @@
       <c r="A175" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B175" s="87"/>
-      <c r="C175" s="88"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="88"/>
-      <c r="F175" s="88"/>
-      <c r="G175" s="89"/>
+      <c r="B175" s="78"/>
+      <c r="C175" s="79"/>
+      <c r="D175" s="79"/>
+      <c r="E175" s="79"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="80"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="39" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B176" s="81" t="s">
         <v>100</v>
@@ -8257,14 +8173,14 @@
       <c r="A177" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="78" t="s">
+      <c r="B177" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="79"/>
-      <c r="D177" s="79"/>
-      <c r="E177" s="79"/>
-      <c r="F177" s="79"/>
-      <c r="G177" s="80"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="86"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="46" t="s">
@@ -8300,7 +8216,7 @@
         <v>121</v>
       </c>
       <c r="D179" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E179" s="49"/>
       <c r="F179" s="50" t="s">
@@ -8330,10 +8246,10 @@
         <v>3</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C181" s="49" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
@@ -8347,10 +8263,10 @@
         <v>4</v>
       </c>
       <c r="B182" s="49" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C182" s="49" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D182" s="49"/>
       <c r="E182" s="49"/>
@@ -8363,16 +8279,16 @@
       <c r="A183" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B183" s="87"/>
-      <c r="C183" s="88"/>
-      <c r="D183" s="88"/>
-      <c r="E183" s="88"/>
-      <c r="F183" s="88"/>
-      <c r="G183" s="89"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="80"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="39" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B184" s="81" t="s">
         <v>101</v>
@@ -8398,14 +8314,14 @@
       <c r="A185" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="78" t="s">
+      <c r="B185" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C185" s="79"/>
-      <c r="D185" s="79"/>
-      <c r="E185" s="79"/>
-      <c r="F185" s="79"/>
-      <c r="G185" s="80"/>
+      <c r="C185" s="85"/>
+      <c r="D185" s="85"/>
+      <c r="E185" s="85"/>
+      <c r="F185" s="85"/>
+      <c r="G185" s="86"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="46" t="s">
@@ -8441,7 +8357,7 @@
         <v>121</v>
       </c>
       <c r="D187" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E187" s="49"/>
       <c r="F187" s="50" t="s">
@@ -8471,10 +8387,10 @@
         <v>3</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C189" s="49" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -8488,10 +8404,10 @@
         <v>4</v>
       </c>
       <c r="B190" s="49" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C190" s="49" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
@@ -8504,16 +8420,16 @@
       <c r="A191" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="87"/>
-      <c r="C191" s="88"/>
-      <c r="D191" s="88"/>
-      <c r="E191" s="88"/>
-      <c r="F191" s="88"/>
-      <c r="G191" s="89"/>
+      <c r="B191" s="78"/>
+      <c r="C191" s="79"/>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
+      <c r="F191" s="79"/>
+      <c r="G191" s="80"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="39" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B192" s="81" t="s">
         <v>105</v>
@@ -8539,14 +8455,14 @@
       <c r="A193" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B193" s="78" t="s">
+      <c r="B193" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C193" s="79"/>
-      <c r="D193" s="79"/>
-      <c r="E193" s="79"/>
-      <c r="F193" s="79"/>
-      <c r="G193" s="80"/>
+      <c r="C193" s="85"/>
+      <c r="D193" s="85"/>
+      <c r="E193" s="85"/>
+      <c r="F193" s="85"/>
+      <c r="G193" s="86"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="46" t="s">
@@ -8582,7 +8498,7 @@
         <v>121</v>
       </c>
       <c r="D195" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E195" s="49"/>
       <c r="F195" s="50" t="s">
@@ -8612,10 +8528,10 @@
         <v>3</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C197" s="49" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
@@ -8629,10 +8545,10 @@
         <v>4</v>
       </c>
       <c r="B198" s="49" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C198" s="49" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D198" s="49"/>
       <c r="E198" s="49"/>
@@ -8645,16 +8561,16 @@
       <c r="A199" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B199" s="87"/>
-      <c r="C199" s="88"/>
-      <c r="D199" s="88"/>
-      <c r="E199" s="88"/>
-      <c r="F199" s="88"/>
-      <c r="G199" s="89"/>
+      <c r="B199" s="78"/>
+      <c r="C199" s="79"/>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="79"/>
+      <c r="G199" s="80"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="39" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B200" s="81" t="s">
         <v>106</v>
@@ -8680,14 +8596,14 @@
       <c r="A201" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B201" s="78" t="s">
+      <c r="B201" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C201" s="79"/>
-      <c r="D201" s="79"/>
-      <c r="E201" s="79"/>
-      <c r="F201" s="79"/>
-      <c r="G201" s="80"/>
+      <c r="C201" s="85"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
+      <c r="F201" s="85"/>
+      <c r="G201" s="86"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="46" t="s">
@@ -8723,7 +8639,7 @@
         <v>121</v>
       </c>
       <c r="D203" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E203" s="49"/>
       <c r="F203" s="50" t="s">
@@ -8753,10 +8669,10 @@
         <v>3</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C205" s="49" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
@@ -8770,10 +8686,10 @@
         <v>4</v>
       </c>
       <c r="B206" s="49" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C206" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
@@ -8786,19 +8702,19 @@
       <c r="A207" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B207" s="87"/>
-      <c r="C207" s="88"/>
-      <c r="D207" s="88"/>
-      <c r="E207" s="88"/>
-      <c r="F207" s="88"/>
-      <c r="G207" s="89"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="79"/>
+      <c r="D207" s="79"/>
+      <c r="E207" s="79"/>
+      <c r="F207" s="79"/>
+      <c r="G207" s="80"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="39" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B208" s="81" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C208" s="82" t="s">
         <v>107</v>
@@ -8821,14 +8737,14 @@
       <c r="A209" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B209" s="78" t="s">
+      <c r="B209" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C209" s="79"/>
-      <c r="D209" s="79"/>
-      <c r="E209" s="79"/>
-      <c r="F209" s="79"/>
-      <c r="G209" s="80"/>
+      <c r="C209" s="85"/>
+      <c r="D209" s="85"/>
+      <c r="E209" s="85"/>
+      <c r="F209" s="85"/>
+      <c r="G209" s="86"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="46" t="s">
@@ -8864,7 +8780,7 @@
         <v>121</v>
       </c>
       <c r="D211" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E211" s="49"/>
       <c r="F211" s="50" t="s">
@@ -8894,10 +8810,10 @@
         <v>3</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C213" s="49" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
@@ -8911,10 +8827,10 @@
         <v>4</v>
       </c>
       <c r="B214" s="49" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C214" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
@@ -8927,16 +8843,16 @@
       <c r="A215" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B215" s="87"/>
-      <c r="C215" s="88"/>
-      <c r="D215" s="88"/>
-      <c r="E215" s="88"/>
-      <c r="F215" s="88"/>
-      <c r="G215" s="89"/>
+      <c r="B215" s="78"/>
+      <c r="C215" s="79"/>
+      <c r="D215" s="79"/>
+      <c r="E215" s="79"/>
+      <c r="F215" s="79"/>
+      <c r="G215" s="80"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="39" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B216" s="81" t="s">
         <v>108</v>
@@ -8962,14 +8878,14 @@
       <c r="A217" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B217" s="78" t="s">
+      <c r="B217" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C217" s="79"/>
-      <c r="D217" s="79"/>
-      <c r="E217" s="79"/>
-      <c r="F217" s="79"/>
-      <c r="G217" s="80"/>
+      <c r="C217" s="85"/>
+      <c r="D217" s="85"/>
+      <c r="E217" s="85"/>
+      <c r="F217" s="85"/>
+      <c r="G217" s="86"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="46" t="s">
@@ -9005,7 +8921,7 @@
         <v>121</v>
       </c>
       <c r="D219" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E219" s="49"/>
       <c r="F219" s="50" t="s">
@@ -9035,10 +8951,10 @@
         <v>3</v>
       </c>
       <c r="B221" s="48" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C221" s="49" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D221" s="49"/>
       <c r="E221" s="49"/>
@@ -9052,10 +8968,10 @@
         <v>4</v>
       </c>
       <c r="B222" s="49" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C222" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D222" s="49"/>
       <c r="E222" s="49"/>
@@ -9068,16 +8984,16 @@
       <c r="A223" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B223" s="87"/>
-      <c r="C223" s="88"/>
-      <c r="D223" s="88"/>
-      <c r="E223" s="88"/>
-      <c r="F223" s="88"/>
-      <c r="G223" s="89"/>
+      <c r="B223" s="78"/>
+      <c r="C223" s="79"/>
+      <c r="D223" s="79"/>
+      <c r="E223" s="79"/>
+      <c r="F223" s="79"/>
+      <c r="G223" s="80"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="39" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B224" s="81" t="s">
         <v>109</v>
@@ -9103,14 +9019,14 @@
       <c r="A225" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B225" s="78" t="s">
+      <c r="B225" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C225" s="79"/>
-      <c r="D225" s="79"/>
-      <c r="E225" s="79"/>
-      <c r="F225" s="79"/>
-      <c r="G225" s="80"/>
+      <c r="C225" s="85"/>
+      <c r="D225" s="85"/>
+      <c r="E225" s="85"/>
+      <c r="F225" s="85"/>
+      <c r="G225" s="86"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="46" t="s">
@@ -9146,7 +9062,7 @@
         <v>121</v>
       </c>
       <c r="D227" s="49" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E227" s="49"/>
       <c r="F227" s="50" t="s">
@@ -9176,10 +9092,10 @@
         <v>3</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C229" s="49" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D229" s="49"/>
       <c r="E229" s="49"/>
@@ -9193,10 +9109,10 @@
         <v>4</v>
       </c>
       <c r="B230" s="49" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C230" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D230" s="49"/>
       <c r="E230" s="49"/>
@@ -9209,16 +9125,16 @@
       <c r="A231" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B231" s="87"/>
-      <c r="C231" s="88"/>
-      <c r="D231" s="88"/>
-      <c r="E231" s="88"/>
-      <c r="F231" s="88"/>
-      <c r="G231" s="89"/>
+      <c r="B231" s="78"/>
+      <c r="C231" s="79"/>
+      <c r="D231" s="79"/>
+      <c r="E231" s="79"/>
+      <c r="F231" s="79"/>
+      <c r="G231" s="80"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="39" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B232" s="81" t="s">
         <v>115</v>
@@ -9244,14 +9160,14 @@
       <c r="A233" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B233" s="78" t="s">
+      <c r="B233" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C233" s="79"/>
-      <c r="D233" s="79"/>
-      <c r="E233" s="79"/>
-      <c r="F233" s="79"/>
-      <c r="G233" s="80"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="85"/>
+      <c r="E233" s="85"/>
+      <c r="F233" s="85"/>
+      <c r="G233" s="86"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="46" t="s">
@@ -9320,7 +9236,7 @@
         <v>128</v>
       </c>
       <c r="C237" s="49" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D237" s="49"/>
       <c r="E237" s="49"/>
@@ -9334,13 +9250,13 @@
         <v>4</v>
       </c>
       <c r="B238" s="49" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C238" s="49" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D238" s="49" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E238" s="49"/>
       <c r="F238" s="50" t="s">
@@ -9352,75 +9268,136 @@
       <c r="A239" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B239" s="87"/>
-      <c r="C239" s="88"/>
-      <c r="D239" s="88"/>
-      <c r="E239" s="88"/>
-      <c r="F239" s="88"/>
-      <c r="G239" s="89"/>
+      <c r="B239" s="78"/>
+      <c r="C239" s="79"/>
+      <c r="D239" s="79"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="79"/>
+      <c r="G239" s="80"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
+      <c r="A240" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B240" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="C240" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D240" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E240" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F240" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G240" s="44" t="str">
+        <f>IF(COUNTIF(F243:F245,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F243:F245,"Fail")&gt;0,"Fail",IF(COUNTIF(F243:F245,"")=0,"Pass","Not Executed")))</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A241" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C241" s="85"/>
+      <c r="D241" s="85"/>
+      <c r="E241" s="85"/>
+      <c r="F241" s="85"/>
+      <c r="G241" s="86"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-    </row>
-    <row r="243" spans="1:7">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
+      <c r="A242" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D242" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E242" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F242" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G242" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="150">
+      <c r="A243" s="47">
+        <v>1</v>
+      </c>
+      <c r="B243" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D243" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E243" s="49"/>
+      <c r="F243" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G243" s="51"/>
+    </row>
+    <row r="244" spans="1:7" ht="45">
+      <c r="A244" s="47">
+        <v>2</v>
+      </c>
+      <c r="B244" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C244" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="D244" s="49"/>
+      <c r="E244" s="49"/>
+      <c r="F244" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G244" s="51"/>
+    </row>
+    <row r="245" spans="1:7" ht="30">
+      <c r="A245" s="47">
+        <v>3</v>
+      </c>
+      <c r="B245" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C245" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D245" s="49"/>
+      <c r="E245" s="49"/>
+      <c r="F245" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G245" s="51"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
+      <c r="A246" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B246" s="78"/>
+      <c r="C246" s="79"/>
+      <c r="D246" s="79"/>
+      <c r="E246" s="79"/>
+      <c r="F246" s="79"/>
+      <c r="G246" s="80"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="8"/>
@@ -11150,7 +11127,7 @@
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" s="35" customFormat="1">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -11158,6 +11135,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
+      <c r="H439" s="12"/>
     </row>
     <row r="440" spans="1:8" s="35" customFormat="1">
       <c r="A440" s="8"/>
@@ -11209,14 +11187,13 @@
       <c r="G444" s="8"/>
       <c r="H444" s="12"/>
     </row>
-    <row r="445" spans="1:8" s="35" customFormat="1">
-      <c r="A445" s="8"/>
-      <c r="B445" s="8"/>
-      <c r="C445" s="8"/>
-      <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
-      <c r="F445" s="8"/>
-      <c r="G445" s="8"/>
+    <row r="445" spans="1:8" s="35" customFormat="1" ht="15.75">
+      <c r="A445" s="15"/>
+      <c r="B445" s="34"/>
+      <c r="C445" s="34"/>
+      <c r="D445" s="55"/>
+      <c r="E445" s="56"/>
+      <c r="F445" s="57"/>
       <c r="H445" s="12"/>
     </row>
     <row r="446" spans="1:8" s="35" customFormat="1" ht="15.75">
@@ -15791,14 +15768,13 @@
       <c r="F953" s="57"/>
       <c r="H953" s="12"/>
     </row>
-    <row r="954" spans="1:8" s="35" customFormat="1" ht="15.75">
+    <row r="954" spans="1:8" ht="15.75">
       <c r="A954" s="15"/>
       <c r="B954" s="34"/>
       <c r="C954" s="34"/>
       <c r="D954" s="55"/>
       <c r="E954" s="56"/>
       <c r="F954" s="57"/>
-      <c r="H954" s="12"/>
     </row>
     <row r="955" spans="1:8" ht="15.75">
       <c r="A955" s="15"/>
@@ -15864,78 +15840,11 @@
       <c r="E962" s="56"/>
       <c r="F962" s="57"/>
     </row>
-    <row r="963" spans="1:6" ht="15.75">
-      <c r="A963" s="15"/>
-      <c r="B963" s="34"/>
-      <c r="C963" s="34"/>
-      <c r="D963" s="55"/>
-      <c r="E963" s="56"/>
-      <c r="F963" s="57"/>
-    </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="B239:G239"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
+  <mergeCells count="90">
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="B246:G246"/>
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:E24"/>
@@ -15950,6 +15859,17 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B103:G103"/>
     <mergeCell ref="B93:G93"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="B59:G59"/>
@@ -15961,9 +15881,60 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B207:G207"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="B239:G239"/>
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B231:G231"/>
+    <mergeCell ref="B232:E232"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F446:F448 F453:F459 F672:F674 F662:F667 F464:F473 F478:F481 F486:F491 F496:F504 F509:F518 F523:F533 F538:F548 F564:F570 F592:F594 F553:F559 F575:F581 F586:F587 F599:F605 F610:F616 F632:F634 F621:F627 F639:F642 F647:F649 F654:F657 F21:F22 F76:F78 F85:F87 F95:F97 F235:F238 F35:F37 F42:F44 F49:F50 F55:F56 F61:F64 F69:F71 F107:F109 F115:F117 F123:F125 F131:F133 F139:F141 F147:F149 F156:F158 F163:F166 F171:F174 F179:F182 F187:F190 F195:F198 F203:F206 F211:F214 F219:F222 F227:F230 F27:F30" xr:uid="{04BF5218-6E63-4791-8319-1BD8E8E2885B}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F445:F447 F452:F458 F671:F673 F661:F666 F463:F472 F477:F480 F485:F490 F495:F503 F508:F517 F522:F532 F537:F547 F563:F569 F591:F593 F552:F558 F574:F580 F585:F586 F598:F604 F609:F615 F631:F633 F620:F626 F638:F641 F646:F648 F653:F656 F243:F245 F27:F30 F227:F230 F219:F222 F211:F214 F203:F206 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F235:F238 F95:F97 F85:F87 F76:F78 F21:F22">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Search options.xlsx
+++ b/TCS_NEWUI_Search options.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AA142-E6ED-4CAA-A428-F1932F038184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -40,9 +46,9 @@
     <definedName name="test" localSheetId="1">#REF!</definedName>
     <definedName name="test">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1900,15 +1906,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1926,6 +1923,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1956,23 +1962,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="40% - Accent2 2 3 2 2" xfId="15"/>
-    <cellStyle name="Accent1 2 2 2 2 3" xfId="13"/>
-    <cellStyle name="Accent1 2 3 2 2" xfId="11"/>
-    <cellStyle name="Accent2 2 3 2 2" xfId="1"/>
-    <cellStyle name="Comma [0] 2" xfId="8"/>
-    <cellStyle name="Comma [0] 3" xfId="9"/>
-    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2 3 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent1 2 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1 2 3 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent2 2 3 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Heading 2 2 2 2 2 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="12"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 4 2" xfId="10"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="6"/>
-    <cellStyle name="Normal 3 2 4 3" xfId="2"/>
-    <cellStyle name="Normal 3 2 4 3 2" xfId="4"/>
-    <cellStyle name="TableStyleLight1 3 4 2" xfId="7"/>
-    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3 2 4 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 3 2 4 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="TableStyleLight1 3 4 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1988,10 +1994,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="48"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2014,7 +2028,9 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2030,6 +2046,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2044,8 +2061,11 @@
               <a:bevelT w="63500" h="25400"/>
             </a:sp3d>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2062,7 +2082,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2070,6 +2090,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="E22B00"/>
@@ -2084,7 +2106,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2092,6 +2114,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -2106,7 +2130,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2114,6 +2138,8 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -2128,7 +2154,7 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
               </c:ext>
@@ -2152,8 +2178,14 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2200,12 +2232,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3CC7-4C87-93CA-4A96F7B6D1FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="48867968"/>
         <c:axId val="48886144"/>
       </c:barChart>
@@ -2214,8 +2255,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2234,6 +2278,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="48886144"/>
@@ -2243,6 +2288,8 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="48867968"/>
         <c:crosses val="autoZero"/>
@@ -2251,6 +2298,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:effectLst/>
@@ -2271,10 +2319,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="45"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="145"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="45"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2297,12 +2353,24 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="90"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2322,6 +2390,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
@@ -2330,7 +2399,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
               </c:ext>
@@ -2338,6 +2407,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:explosion val="19"/>
             <c:spPr>
               <a:solidFill>
@@ -2347,7 +2417,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
               </c:ext>
@@ -2371,6 +2441,17 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2389,6 +2470,17 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -2397,9 +2489,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2432,14 +2529,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1F1A-43A2-A67F-9D43FBDDFA5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -2460,9 +2563,11 @@
           <c:h val="7.1280252974084315E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln w="0"/>
@@ -2484,9 +2589,20 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2511,6 +2627,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -2519,7 +2636,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2527,6 +2644,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2535,7 +2653,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2543,6 +2661,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -2551,7 +2670,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2559,6 +2678,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -2567,7 +2687,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0173-4321-8CAC-88CA7EFFE04D}"/>
               </c:ext>
@@ -2614,12 +2734,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0173-4321-8CAC-88CA7EFFE04D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -2706,6 +2835,7 @@
           <c:h val="0.95693837006674254"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2732,6 +2862,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2789,7 +2920,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93F95FA3-3A9A-4305-AFFA-52E4BAA24C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F95FA3-3A9A-4305-AFFA-52E4BAA24C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2958,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9531D562-F1AE-493E-B6CF-CF69549BAA21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9531D562-F1AE-493E-B6CF-CF69549BAA21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2996,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D08B4E06-2AF6-4DF7-B7CF-932CD9795B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08B4E06-2AF6-4DF7-B7CF-932CD9795B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +3008,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2897,7 +3028,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2969,7 +3100,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB7E65A0-4003-44F1-85A9-FCE7EDFBA4CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7E65A0-4003-44F1-85A9-FCE7EDFBA4CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3234,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525" cmpd="sng">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3153,7 +3284,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E36E588-14AD-46D7-8AF0-1D090F285222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E36E588-14AD-46D7-8AF0-1D090F285222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,14 +3596,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3749,7 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" location="'Search Options'!A1" display="Redesign - Search Options"/>
+    <hyperlink ref="A8" location="'Search Options'!A1" display="Redesign - Search Options" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3627,10 +3758,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -4503,11 +4636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5394,16 +5527,16 @@
       <c r="A18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="80" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="43" t="s">
@@ -5418,14 +5551,14 @@
       <c r="A19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" s="38" customFormat="1">
       <c r="A20" s="46" t="s">
@@ -5490,27 +5623,27 @@
       <c r="A23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="80" t="s">
         <v>124</v>
       </c>
       <c r="F24" s="43" t="s">
@@ -5525,14 +5658,14 @@
       <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="46" t="s">
@@ -5629,27 +5762,27 @@
       <c r="A31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
       <c r="A32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="80" t="s">
         <v>126</v>
       </c>
       <c r="F32" s="43" t="s">
@@ -5664,14 +5797,14 @@
       <c r="A33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="46" t="s">
@@ -5751,12 +5884,12 @@
       <c r="A38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A39" s="39" t="s">
@@ -5780,14 +5913,14 @@
       <c r="A40" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="83"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
       <c r="A41" s="46" t="s">
@@ -5867,27 +6000,27 @@
       <c r="A45" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="78"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
       <c r="A46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="80" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="43" t="s">
@@ -5972,27 +6105,27 @@
       <c r="A51" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="80"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="86"/>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
       <c r="A52" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="80" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="43" t="s">
@@ -6007,14 +6140,14 @@
       <c r="A53" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="86"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
       <c r="A54" s="46" t="s">
@@ -6077,27 +6210,27 @@
       <c r="A57" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="86"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
       <c r="A58" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="82" t="s">
+      <c r="C58" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="80" t="s">
         <v>79</v>
       </c>
       <c r="F58" s="43" t="s">
@@ -6216,27 +6349,27 @@
       <c r="A65" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="86"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="82" t="s">
+      <c r="D66" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="83" t="s">
+      <c r="E66" s="80" t="s">
         <v>78</v>
       </c>
       <c r="F66" s="43" t="s">
@@ -6251,14 +6384,14 @@
       <c r="A67" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="86"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="83"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
       <c r="A68" s="46" t="s">
@@ -6338,27 +6471,27 @@
       <c r="A72" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="80"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="86"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
       <c r="A73" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="81" t="s">
+      <c r="B73" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="83" t="s">
+      <c r="E73" s="80" t="s">
         <v>87</v>
       </c>
       <c r="F73" s="43" t="s">
@@ -6498,27 +6631,27 @@
       <c r="A81" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="80"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="86"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A82" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="82" t="s">
+      <c r="C82" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="82" t="s">
+      <c r="D82" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="83" t="s">
+      <c r="E82" s="80" t="s">
         <v>88</v>
       </c>
       <c r="F82" s="43" t="s">
@@ -6533,14 +6666,14 @@
       <c r="A83" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="86"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="83"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="46" t="s">
@@ -6673,27 +6806,27 @@
       <c r="A91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="78"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="80"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="86"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A92" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="81" t="s">
+      <c r="B92" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="82" t="s">
+      <c r="C92" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="82" t="s">
+      <c r="D92" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="83" t="s">
+      <c r="E92" s="80" t="s">
         <v>86</v>
       </c>
       <c r="F92" s="43" t="s">
@@ -6708,14 +6841,14 @@
       <c r="A93" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="84" t="s">
+      <c r="B93" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="86"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="83"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
       <c r="A94" s="46" t="s">
@@ -6880,27 +7013,27 @@
       <c r="A103" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="78"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="80"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="86"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="81" t="s">
+      <c r="B104" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="82" t="s">
+      <c r="C104" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="82" t="s">
+      <c r="D104" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="83" t="s">
+      <c r="E104" s="80" t="s">
         <v>80</v>
       </c>
       <c r="F104" s="43" t="s">
@@ -6915,14 +7048,14 @@
       <c r="A105" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="84" t="s">
+      <c r="B105" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="86"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="83"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="46" t="s">
@@ -7019,27 +7152,27 @@
       <c r="A111" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="78"/>
-      <c r="C111" s="79"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="80"/>
+      <c r="B111" s="84"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="86"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="82" t="s">
+      <c r="C112" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D112" s="82" t="s">
+      <c r="D112" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="83" t="s">
+      <c r="E112" s="80" t="s">
         <v>80</v>
       </c>
       <c r="F112" s="43" t="s">
@@ -7055,14 +7188,14 @@
       <c r="A113" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="84" t="s">
+      <c r="B113" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="86"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="82"/>
+      <c r="E113" s="82"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="83"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="46" t="s">
@@ -7159,27 +7292,27 @@
       <c r="A119" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="78"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="80"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="86"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C120" s="82" t="s">
+      <c r="C120" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D120" s="82" t="s">
+      <c r="D120" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="E120" s="83" t="s">
+      <c r="E120" s="80" t="s">
         <v>81</v>
       </c>
       <c r="F120" s="43" t="s">
@@ -7194,14 +7327,14 @@
       <c r="A121" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="84" t="s">
+      <c r="B121" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="86"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="83"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="46" t="s">
@@ -7300,27 +7433,27 @@
       <c r="A127" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="78"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="80"/>
+      <c r="B127" s="84"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="86"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C128" s="82" t="s">
+      <c r="C128" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D128" s="82" t="s">
+      <c r="D128" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E128" s="83" t="s">
+      <c r="E128" s="80" t="s">
         <v>82</v>
       </c>
       <c r="F128" s="43" t="s">
@@ -7335,14 +7468,14 @@
       <c r="A129" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="84" t="s">
+      <c r="B129" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="85"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="86"/>
+      <c r="C129" s="82"/>
+      <c r="D129" s="82"/>
+      <c r="E129" s="82"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="83"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="46" t="s">
@@ -7439,27 +7572,27 @@
       <c r="A135" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B135" s="78"/>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="80"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="86"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="81" t="s">
+      <c r="B136" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C136" s="82" t="s">
+      <c r="C136" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D136" s="82" t="s">
+      <c r="D136" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E136" s="83" t="s">
+      <c r="E136" s="80" t="s">
         <v>82</v>
       </c>
       <c r="F136" s="43" t="s">
@@ -7474,14 +7607,14 @@
       <c r="A137" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="84" t="s">
+      <c r="B137" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C137" s="85"/>
-      <c r="D137" s="85"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="86"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="82"/>
+      <c r="E137" s="82"/>
+      <c r="F137" s="82"/>
+      <c r="G137" s="83"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="46" t="s">
@@ -7578,27 +7711,27 @@
       <c r="A143" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B143" s="78"/>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="80"/>
+      <c r="B143" s="84"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="86"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="81" t="s">
+      <c r="B144" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="82" t="s">
+      <c r="C144" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D144" s="82" t="s">
+      <c r="D144" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E144" s="83" t="s">
+      <c r="E144" s="80" t="s">
         <v>82</v>
       </c>
       <c r="F144" s="43" t="s">
@@ -7613,14 +7746,14 @@
       <c r="A145" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B145" s="84" t="s">
+      <c r="B145" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="86"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="82"/>
+      <c r="E145" s="82"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="83"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="46" t="s">
@@ -7734,27 +7867,27 @@
       <c r="A152" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="78"/>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="80"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="86"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C153" s="82" t="s">
+      <c r="C153" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D153" s="82" t="s">
+      <c r="D153" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E153" s="83" t="s">
+      <c r="E153" s="80" t="s">
         <v>84</v>
       </c>
       <c r="F153" s="43" t="s">
@@ -7769,14 +7902,14 @@
       <c r="A154" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B154" s="84" t="s">
+      <c r="B154" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C154" s="85"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
-      <c r="G154" s="86"/>
+      <c r="C154" s="82"/>
+      <c r="D154" s="82"/>
+      <c r="E154" s="82"/>
+      <c r="F154" s="82"/>
+      <c r="G154" s="83"/>
     </row>
     <row r="155" spans="1:7" ht="30.95" customHeight="1">
       <c r="A155" s="46" t="s">
@@ -7856,27 +7989,27 @@
       <c r="A159" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B159" s="78"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="80"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="86"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B160" s="81" t="s">
+      <c r="B160" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="82" t="s">
+      <c r="C160" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="D160" s="82" t="s">
+      <c r="D160" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="83" t="s">
+      <c r="E160" s="80" t="s">
         <v>96</v>
       </c>
       <c r="F160" s="43" t="s">
@@ -7891,14 +8024,14 @@
       <c r="A161" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="84" t="s">
+      <c r="B161" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C161" s="85"/>
-      <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
-      <c r="G161" s="86"/>
+      <c r="C161" s="82"/>
+      <c r="D161" s="82"/>
+      <c r="E161" s="82"/>
+      <c r="F161" s="82"/>
+      <c r="G161" s="83"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="46" t="s">
@@ -7997,27 +8130,27 @@
       <c r="A167" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="78"/>
-      <c r="C167" s="79"/>
-      <c r="D167" s="79"/>
-      <c r="E167" s="79"/>
-      <c r="F167" s="79"/>
-      <c r="G167" s="80"/>
+      <c r="B167" s="84"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="85"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="86"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B168" s="81" t="s">
+      <c r="B168" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="82" t="s">
+      <c r="C168" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D168" s="82" t="s">
+      <c r="D168" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E168" s="83" t="s">
+      <c r="E168" s="80" t="s">
         <v>98</v>
       </c>
       <c r="F168" s="43" t="s">
@@ -8032,14 +8165,14 @@
       <c r="A169" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B169" s="84" t="s">
+      <c r="B169" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="85"/>
-      <c r="D169" s="85"/>
-      <c r="E169" s="85"/>
-      <c r="F169" s="85"/>
-      <c r="G169" s="86"/>
+      <c r="C169" s="82"/>
+      <c r="D169" s="82"/>
+      <c r="E169" s="82"/>
+      <c r="F169" s="82"/>
+      <c r="G169" s="83"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="46" t="s">
@@ -8138,27 +8271,27 @@
       <c r="A175" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B175" s="78"/>
-      <c r="C175" s="79"/>
-      <c r="D175" s="79"/>
-      <c r="E175" s="79"/>
-      <c r="F175" s="79"/>
-      <c r="G175" s="80"/>
+      <c r="B175" s="84"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="85"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="86"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C176" s="82" t="s">
+      <c r="C176" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="D176" s="82" t="s">
+      <c r="D176" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="E176" s="83" t="s">
+      <c r="E176" s="80" t="s">
         <v>100</v>
       </c>
       <c r="F176" s="43" t="s">
@@ -8173,14 +8306,14 @@
       <c r="A177" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="84" t="s">
+      <c r="B177" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="85"/>
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="86"/>
+      <c r="C177" s="82"/>
+      <c r="D177" s="82"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="83"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="46" t="s">
@@ -8279,27 +8412,27 @@
       <c r="A183" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B183" s="78"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="80"/>
+      <c r="B183" s="84"/>
+      <c r="C183" s="85"/>
+      <c r="D183" s="85"/>
+      <c r="E183" s="85"/>
+      <c r="F183" s="85"/>
+      <c r="G183" s="86"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="81" t="s">
+      <c r="B184" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C184" s="82" t="s">
+      <c r="C184" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D184" s="82" t="s">
+      <c r="D184" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E184" s="83" t="s">
+      <c r="E184" s="80" t="s">
         <v>101</v>
       </c>
       <c r="F184" s="43" t="s">
@@ -8314,14 +8447,14 @@
       <c r="A185" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="84" t="s">
+      <c r="B185" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C185" s="85"/>
-      <c r="D185" s="85"/>
-      <c r="E185" s="85"/>
-      <c r="F185" s="85"/>
-      <c r="G185" s="86"/>
+      <c r="C185" s="82"/>
+      <c r="D185" s="82"/>
+      <c r="E185" s="82"/>
+      <c r="F185" s="82"/>
+      <c r="G185" s="83"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="46" t="s">
@@ -8420,27 +8553,27 @@
       <c r="A191" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="78"/>
-      <c r="C191" s="79"/>
-      <c r="D191" s="79"/>
-      <c r="E191" s="79"/>
-      <c r="F191" s="79"/>
-      <c r="G191" s="80"/>
+      <c r="B191" s="84"/>
+      <c r="C191" s="85"/>
+      <c r="D191" s="85"/>
+      <c r="E191" s="85"/>
+      <c r="F191" s="85"/>
+      <c r="G191" s="86"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B192" s="81" t="s">
+      <c r="B192" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C192" s="82" t="s">
+      <c r="C192" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D192" s="82" t="s">
+      <c r="D192" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E192" s="83" t="s">
+      <c r="E192" s="80" t="s">
         <v>105</v>
       </c>
       <c r="F192" s="43" t="s">
@@ -8455,14 +8588,14 @@
       <c r="A193" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B193" s="84" t="s">
+      <c r="B193" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C193" s="85"/>
-      <c r="D193" s="85"/>
-      <c r="E193" s="85"/>
-      <c r="F193" s="85"/>
-      <c r="G193" s="86"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="82"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="83"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="46" t="s">
@@ -8561,27 +8694,27 @@
       <c r="A199" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B199" s="78"/>
-      <c r="C199" s="79"/>
-      <c r="D199" s="79"/>
-      <c r="E199" s="79"/>
-      <c r="F199" s="79"/>
-      <c r="G199" s="80"/>
+      <c r="B199" s="84"/>
+      <c r="C199" s="85"/>
+      <c r="D199" s="85"/>
+      <c r="E199" s="85"/>
+      <c r="F199" s="85"/>
+      <c r="G199" s="86"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="81" t="s">
+      <c r="B200" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C200" s="82" t="s">
+      <c r="C200" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="D200" s="82" t="s">
+      <c r="D200" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E200" s="83" t="s">
+      <c r="E200" s="80" t="s">
         <v>106</v>
       </c>
       <c r="F200" s="43" t="s">
@@ -8596,14 +8729,14 @@
       <c r="A201" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B201" s="84" t="s">
+      <c r="B201" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C201" s="85"/>
-      <c r="D201" s="85"/>
-      <c r="E201" s="85"/>
-      <c r="F201" s="85"/>
-      <c r="G201" s="86"/>
+      <c r="C201" s="82"/>
+      <c r="D201" s="82"/>
+      <c r="E201" s="82"/>
+      <c r="F201" s="82"/>
+      <c r="G201" s="83"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="46" t="s">
@@ -8702,27 +8835,27 @@
       <c r="A207" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B207" s="78"/>
-      <c r="C207" s="79"/>
-      <c r="D207" s="79"/>
-      <c r="E207" s="79"/>
-      <c r="F207" s="79"/>
-      <c r="G207" s="80"/>
+      <c r="B207" s="84"/>
+      <c r="C207" s="85"/>
+      <c r="D207" s="85"/>
+      <c r="E207" s="85"/>
+      <c r="F207" s="85"/>
+      <c r="G207" s="86"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="81" t="s">
+      <c r="B208" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C208" s="82" t="s">
+      <c r="C208" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="D208" s="82" t="s">
+      <c r="D208" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E208" s="83" t="s">
+      <c r="E208" s="80" t="s">
         <v>107</v>
       </c>
       <c r="F208" s="43" t="s">
@@ -8737,14 +8870,14 @@
       <c r="A209" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B209" s="84" t="s">
+      <c r="B209" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C209" s="85"/>
-      <c r="D209" s="85"/>
-      <c r="E209" s="85"/>
-      <c r="F209" s="85"/>
-      <c r="G209" s="86"/>
+      <c r="C209" s="82"/>
+      <c r="D209" s="82"/>
+      <c r="E209" s="82"/>
+      <c r="F209" s="82"/>
+      <c r="G209" s="83"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="46" t="s">
@@ -8843,27 +8976,27 @@
       <c r="A215" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B215" s="78"/>
-      <c r="C215" s="79"/>
-      <c r="D215" s="79"/>
-      <c r="E215" s="79"/>
-      <c r="F215" s="79"/>
-      <c r="G215" s="80"/>
+      <c r="B215" s="84"/>
+      <c r="C215" s="85"/>
+      <c r="D215" s="85"/>
+      <c r="E215" s="85"/>
+      <c r="F215" s="85"/>
+      <c r="G215" s="86"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B216" s="81" t="s">
+      <c r="B216" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C216" s="82" t="s">
+      <c r="C216" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D216" s="82" t="s">
+      <c r="D216" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E216" s="83" t="s">
+      <c r="E216" s="80" t="s">
         <v>108</v>
       </c>
       <c r="F216" s="43" t="s">
@@ -8878,14 +9011,14 @@
       <c r="A217" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B217" s="84" t="s">
+      <c r="B217" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C217" s="85"/>
-      <c r="D217" s="85"/>
-      <c r="E217" s="85"/>
-      <c r="F217" s="85"/>
-      <c r="G217" s="86"/>
+      <c r="C217" s="82"/>
+      <c r="D217" s="82"/>
+      <c r="E217" s="82"/>
+      <c r="F217" s="82"/>
+      <c r="G217" s="83"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="46" t="s">
@@ -8984,27 +9117,27 @@
       <c r="A223" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B223" s="78"/>
-      <c r="C223" s="79"/>
-      <c r="D223" s="79"/>
-      <c r="E223" s="79"/>
-      <c r="F223" s="79"/>
-      <c r="G223" s="80"/>
+      <c r="B223" s="84"/>
+      <c r="C223" s="85"/>
+      <c r="D223" s="85"/>
+      <c r="E223" s="85"/>
+      <c r="F223" s="85"/>
+      <c r="G223" s="86"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B224" s="81" t="s">
+      <c r="B224" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C224" s="82" t="s">
+      <c r="C224" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="82" t="s">
+      <c r="D224" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E224" s="83" t="s">
+      <c r="E224" s="80" t="s">
         <v>109</v>
       </c>
       <c r="F224" s="43" t="s">
@@ -9019,14 +9152,14 @@
       <c r="A225" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B225" s="84" t="s">
+      <c r="B225" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C225" s="85"/>
-      <c r="D225" s="85"/>
-      <c r="E225" s="85"/>
-      <c r="F225" s="85"/>
-      <c r="G225" s="86"/>
+      <c r="C225" s="82"/>
+      <c r="D225" s="82"/>
+      <c r="E225" s="82"/>
+      <c r="F225" s="82"/>
+      <c r="G225" s="83"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="46" t="s">
@@ -9125,27 +9258,27 @@
       <c r="A231" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B231" s="78"/>
-      <c r="C231" s="79"/>
-      <c r="D231" s="79"/>
-      <c r="E231" s="79"/>
-      <c r="F231" s="79"/>
-      <c r="G231" s="80"/>
+      <c r="B231" s="84"/>
+      <c r="C231" s="85"/>
+      <c r="D231" s="85"/>
+      <c r="E231" s="85"/>
+      <c r="F231" s="85"/>
+      <c r="G231" s="86"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B232" s="81" t="s">
+      <c r="B232" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="C232" s="82" t="s">
+      <c r="C232" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D232" s="82" t="s">
+      <c r="D232" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="E232" s="83" t="s">
+      <c r="E232" s="80" t="s">
         <v>115</v>
       </c>
       <c r="F232" s="43" t="s">
@@ -9160,14 +9293,14 @@
       <c r="A233" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B233" s="84" t="s">
+      <c r="B233" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C233" s="85"/>
-      <c r="D233" s="85"/>
-      <c r="E233" s="85"/>
-      <c r="F233" s="85"/>
-      <c r="G233" s="86"/>
+      <c r="C233" s="82"/>
+      <c r="D233" s="82"/>
+      <c r="E233" s="82"/>
+      <c r="F233" s="82"/>
+      <c r="G233" s="83"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="46" t="s">
@@ -9268,27 +9401,27 @@
       <c r="A239" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B239" s="78"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="79"/>
-      <c r="E239" s="79"/>
-      <c r="F239" s="79"/>
-      <c r="G239" s="80"/>
+      <c r="B239" s="84"/>
+      <c r="C239" s="85"/>
+      <c r="D239" s="85"/>
+      <c r="E239" s="85"/>
+      <c r="F239" s="85"/>
+      <c r="G239" s="86"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="B240" s="81" t="s">
+      <c r="B240" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C240" s="82" t="s">
+      <c r="C240" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D240" s="82" t="s">
+      <c r="D240" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="E240" s="83" t="s">
+      <c r="E240" s="80" t="s">
         <v>115</v>
       </c>
       <c r="F240" s="43" t="s">
@@ -9303,14 +9436,14 @@
       <c r="A241" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B241" s="84" t="s">
+      <c r="B241" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C241" s="85"/>
-      <c r="D241" s="85"/>
-      <c r="E241" s="85"/>
-      <c r="F241" s="85"/>
-      <c r="G241" s="86"/>
+      <c r="C241" s="82"/>
+      <c r="D241" s="82"/>
+      <c r="E241" s="82"/>
+      <c r="F241" s="82"/>
+      <c r="G241" s="83"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="46" t="s">
@@ -9392,12 +9525,12 @@
       <c r="A246" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B246" s="78"/>
-      <c r="C246" s="79"/>
-      <c r="D246" s="79"/>
-      <c r="E246" s="79"/>
-      <c r="F246" s="79"/>
-      <c r="G246" s="80"/>
+      <c r="B246" s="84"/>
+      <c r="C246" s="85"/>
+      <c r="D246" s="85"/>
+      <c r="E246" s="85"/>
+      <c r="F246" s="85"/>
+      <c r="G246" s="86"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="8"/>
@@ -15842,6 +15975,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="B239:G239"/>
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B231:G231"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B207:G207"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B240:E240"/>
     <mergeCell ref="B241:G241"/>
     <mergeCell ref="B246:G246"/>
@@ -15858,83 +16065,9 @@
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="B239:G239"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B232:E232"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F445:F447 F452:F458 F671:F673 F661:F666 F463:F472 F477:F480 F485:F490 F495:F503 F508:F517 F522:F532 F537:F547 F563:F569 F591:F593 F552:F558 F574:F580 F585:F586 F598:F604 F609:F615 F631:F633 F620:F626 F638:F641 F646:F648 F653:F656 F243:F245 F27:F30 F227:F230 F219:F222 F211:F214 F203:F206 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F235:F238 F95:F97 F85:F87 F76:F78 F21:F22">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F445:F447 F452:F458 F671:F673 F661:F666 F463:F472 F477:F480 F485:F490 F495:F503 F508:F517 F522:F532 F537:F547 F563:F569 F591:F593 F552:F558 F574:F580 F585:F586 F598:F604 F609:F615 F631:F633 F620:F626 F638:F641 F646:F648 F653:F656 F243:F245 F27:F30 F227:F230 F219:F222 F211:F214 F203:F206 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F235:F238 F95:F97 F85:F87 F76:F78 F21:F22" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Search options.xlsx
+++ b/TCS_NEWUI_Search options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AA142-E6ED-4CAA-A428-F1932F038184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE590F7-56C0-4387-A02C-FA004A56A17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -51,18 +51,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="291">
   <si>
     <t>US#</t>
   </si>
@@ -979,6 +973,109 @@
   <si>
     <t>1. The Filters selected by the user should be applied on the report 
 2. Search options Modal window should be closed</t>
+  </si>
+  <si>
+    <t>Bug Tickets</t>
+  </si>
+  <si>
+    <t>SMRT-7955</t>
+  </si>
+  <si>
+    <t>Verify Bigger Search Window should be displayed for hierarchy items(Multi tree) in search options
+For i.e Brand - Advertiser product, Category
+Brand Canada -  Company divison Brand, Category class, Market</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>Verify Loading icon should be displayed while data is loading in fields</t>
+  </si>
+  <si>
+    <t>SMRT-8302</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 30</t>
+  </si>
+  <si>
+    <t>Search options window should be open</t>
+  </si>
+  <si>
+    <t>Click on Advertiser product field tag</t>
+  </si>
+  <si>
+    <t>Loading icon should be displayed on left section untill data gets load 
+(Previously it was showing "No rows to show")</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>SMRT-8119</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 31</t>
+  </si>
+  <si>
+    <t>Verify  Length filter in Search Options</t>
+  </si>
+  <si>
+    <t>Click on length field tag</t>
+  </si>
+  <si>
+    <t>1. All length 5,10,15,30,45,60,&gt;60 should be displayed
+2. Length info should be displayed on Length(?)</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>Verify User able to filter video ads with all length filter options</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 32</t>
+  </si>
+  <si>
+    <t>Select length 5 &amp; click on apply button</t>
+  </si>
+  <si>
+    <t>Goto media and select media type</t>
+  </si>
+  <si>
+    <t>Media :  Online video &amp; Television</t>
+  </si>
+  <si>
+    <t>User able to selecte media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ads having AdLength 0-6 seconds should be displayed
+</t>
+  </si>
+  <si>
+    <t>Ads should be open</t>
+  </si>
+  <si>
+    <t>Now Plat that Ad</t>
+  </si>
+  <si>
+    <t>Ads time frame must be between 0-6 seconds</t>
+  </si>
+  <si>
+    <t>Click on View ads from Carousel</t>
+  </si>
+  <si>
+    <t>Now execute same steps for all other lengths</t>
+  </si>
+  <si>
+    <t>Ads Size should be as Below
+ AdLength 0-6 seconds (5)
+7-12  seconds (10)
+13-17 seconds(15)
+18-24 seconds(20)
+25-35 seconds (30)
+36-54 seconds (45)
+55-65 seconds (60)
+66+ seconds (&gt;60)</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1906,6 +2003,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1923,15 +2029,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1959,6 +2056,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2218,7 +2318,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2227,7 +2327,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,10 +2621,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.96875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2820,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2729,7 +2829,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,7 +3450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3402,7 +3502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3671,7 +3771,7 @@
       </c>
       <c r="B8" s="61">
         <f>'Search Options'!C11</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="61">
         <f>'Search Options'!C12</f>
@@ -3683,15 +3783,15 @@
       </c>
       <c r="E8" s="61">
         <f>'Search Options'!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="61">
         <f>SUM(B8:E8)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="62">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>1</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3709,7 +3809,7 @@
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="64">
         <f>SUM(C8:C9)</f>
@@ -3721,15 +3821,15 @@
       </c>
       <c r="E10" s="64">
         <f>SUM(E8:E9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="64">
         <f>SUM(F8:F9)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" s="65">
         <f>SUM(G8:G8)</f>
-        <v>1</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -3738,7 +3838,7 @@
       </c>
       <c r="G11" s="66">
         <f>100%-G10</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3761,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4355,19 +4455,41 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="77"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="77"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="77"/>
-      <c r="B33" s="11"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
@@ -4380,15 +4502,25 @@
     <row r="35" spans="1:5">
       <c r="A35" s="77"/>
       <c r="B35" s="11"/>
+      <c r="C35" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="77"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="45">
       <c r="A37" s="77"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="77"/>
@@ -4637,10 +4769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H962"/>
+  <dimension ref="A1:H963"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5387,8 +5519,8 @@
         <v>30</v>
       </c>
       <c r="G7" s="26">
-        <f>COUNTIF(G11:G1088,"Pass")</f>
-        <v>28</v>
+        <f>COUNTIF(G11:G1089,"Pass")</f>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5403,7 +5535,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="26">
-        <f>COUNTIF(G12:G1089,"Fail")</f>
+        <f>COUNTIF(G12:G1090,"Fail")</f>
         <v>1</v>
       </c>
     </row>
@@ -5421,7 +5553,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="26">
-        <f>COUNTIF(G13:G1090,"Blocked")</f>
+        <f>COUNTIF(G13:G1091,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -5437,8 +5569,8 @@
         <v>37</v>
       </c>
       <c r="G10" s="26">
-        <f>COUNTIF(G14:G1091,"Not Executed")</f>
-        <v>0</v>
+        <f>COUNTIF(G14:G1092,"Not Executed")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5448,7 +5580,7 @@
       </c>
       <c r="C11" s="17">
         <f>G7</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
@@ -5490,7 +5622,7 @@
       </c>
       <c r="C14" s="17">
         <f>G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="15"/>
@@ -5527,16 +5659,16 @@
       <c r="A18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="83" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="43" t="s">
@@ -5551,14 +5683,14 @@
       <c r="A19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:7" s="38" customFormat="1">
       <c r="A20" s="46" t="s">
@@ -5623,27 +5755,27 @@
       <c r="A23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="83" t="s">
         <v>124</v>
       </c>
       <c r="F24" s="43" t="s">
@@ -5658,14 +5790,14 @@
       <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="46" t="s">
@@ -5762,27 +5894,27 @@
       <c r="A31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
       <c r="A32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="83" t="s">
         <v>126</v>
       </c>
       <c r="F32" s="43" t="s">
@@ -5797,14 +5929,14 @@
       <c r="A33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="46" t="s">
@@ -5884,12 +6016,12 @@
       <c r="A38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A39" s="39" t="s">
@@ -5913,14 +6045,14 @@
       <c r="A40" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="83"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
       <c r="A41" s="46" t="s">
@@ -6000,27 +6132,27 @@
       <c r="A45" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
       <c r="A46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="80" t="s">
+      <c r="E46" s="83" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="43" t="s">
@@ -6105,27 +6237,27 @@
       <c r="A51" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="86"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
       <c r="A52" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="79" t="s">
+      <c r="D52" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="80" t="s">
+      <c r="E52" s="83" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="43" t="s">
@@ -6140,14 +6272,14 @@
       <c r="A53" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="83"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="86"/>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
       <c r="A54" s="46" t="s">
@@ -6210,27 +6342,27 @@
       <c r="A57" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
       <c r="A58" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="79" t="s">
+      <c r="D58" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="80" t="s">
+      <c r="E58" s="83" t="s">
         <v>79</v>
       </c>
       <c r="F58" s="43" t="s">
@@ -6349,27 +6481,27 @@
       <c r="A65" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="86"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="80"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="80" t="s">
+      <c r="E66" s="83" t="s">
         <v>78</v>
       </c>
       <c r="F66" s="43" t="s">
@@ -6384,14 +6516,14 @@
       <c r="A67" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="83"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="86"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
       <c r="A68" s="46" t="s">
@@ -6471,27 +6603,27 @@
       <c r="A72" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="86"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="80"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
       <c r="A73" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="78" t="s">
+      <c r="B73" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="80" t="s">
+      <c r="E73" s="83" t="s">
         <v>87</v>
       </c>
       <c r="F73" s="43" t="s">
@@ -6631,27 +6763,27 @@
       <c r="A81" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="84"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="86"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="80"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A82" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="79" t="s">
+      <c r="D82" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="80" t="s">
+      <c r="E82" s="83" t="s">
         <v>88</v>
       </c>
       <c r="F82" s="43" t="s">
@@ -6666,14 +6798,14 @@
       <c r="A83" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="82"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="83"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="86"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="46" t="s">
@@ -6806,27 +6938,27 @@
       <c r="A91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="84"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="86"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="80"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A92" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="78" t="s">
+      <c r="B92" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="79" t="s">
+      <c r="D92" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="80" t="s">
+      <c r="E92" s="83" t="s">
         <v>86</v>
       </c>
       <c r="F92" s="43" t="s">
@@ -6841,14 +6973,14 @@
       <c r="A93" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="81" t="s">
+      <c r="B93" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="83"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="86"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
       <c r="A94" s="46" t="s">
@@ -7013,27 +7145,27 @@
       <c r="A103" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="84"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="86"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="79"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="80"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="78" t="s">
+      <c r="B104" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="79" t="s">
+      <c r="D104" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="80" t="s">
+      <c r="E104" s="83" t="s">
         <v>80</v>
       </c>
       <c r="F104" s="43" t="s">
@@ -7048,14 +7180,14 @@
       <c r="A105" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="81" t="s">
+      <c r="B105" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="83"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="86"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="46" t="s">
@@ -7152,27 +7284,27 @@
       <c r="A111" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="84"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="86"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="80"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B112" s="78" t="s">
+      <c r="B112" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="79" t="s">
+      <c r="C112" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D112" s="79" t="s">
+      <c r="D112" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="80" t="s">
+      <c r="E112" s="83" t="s">
         <v>80</v>
       </c>
       <c r="F112" s="43" t="s">
@@ -7188,14 +7320,14 @@
       <c r="A113" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="81" t="s">
+      <c r="B113" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="82"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="82"/>
-      <c r="F113" s="82"/>
-      <c r="G113" s="83"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="86"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="46" t="s">
@@ -7292,27 +7424,27 @@
       <c r="A119" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="84"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
-      <c r="E119" s="85"/>
-      <c r="F119" s="85"/>
-      <c r="G119" s="86"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="79"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="80"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="78" t="s">
+      <c r="B120" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C120" s="79" t="s">
+      <c r="C120" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D120" s="79" t="s">
+      <c r="D120" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E120" s="80" t="s">
+      <c r="E120" s="83" t="s">
         <v>81</v>
       </c>
       <c r="F120" s="43" t="s">
@@ -7327,14 +7459,14 @@
       <c r="A121" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="81" t="s">
+      <c r="B121" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="83"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="86"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="46" t="s">
@@ -7433,27 +7565,27 @@
       <c r="A127" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="84"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="86"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="80"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="78" t="s">
+      <c r="B128" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C128" s="79" t="s">
+      <c r="C128" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D128" s="79" t="s">
+      <c r="D128" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="E128" s="80" t="s">
+      <c r="E128" s="83" t="s">
         <v>82</v>
       </c>
       <c r="F128" s="43" t="s">
@@ -7468,14 +7600,14 @@
       <c r="A129" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="81" t="s">
+      <c r="B129" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="83"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="86"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="46" t="s">
@@ -7572,27 +7704,27 @@
       <c r="A135" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B135" s="84"/>
-      <c r="C135" s="85"/>
-      <c r="D135" s="85"/>
-      <c r="E135" s="85"/>
-      <c r="F135" s="85"/>
-      <c r="G135" s="86"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="80"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="78" t="s">
+      <c r="B136" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C136" s="79" t="s">
+      <c r="C136" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D136" s="79" t="s">
+      <c r="D136" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="E136" s="80" t="s">
+      <c r="E136" s="83" t="s">
         <v>82</v>
       </c>
       <c r="F136" s="43" t="s">
@@ -7607,14 +7739,14 @@
       <c r="A137" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="81" t="s">
+      <c r="B137" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C137" s="82"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="82"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="83"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="86"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="46" t="s">
@@ -7711,27 +7843,27 @@
       <c r="A143" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B143" s="84"/>
-      <c r="C143" s="85"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="86"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="80"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="78" t="s">
+      <c r="B144" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="79" t="s">
+      <c r="C144" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D144" s="79" t="s">
+      <c r="D144" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="E144" s="80" t="s">
+      <c r="E144" s="83" t="s">
         <v>82</v>
       </c>
       <c r="F144" s="43" t="s">
@@ -7746,14 +7878,14 @@
       <c r="A145" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B145" s="81" t="s">
+      <c r="B145" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="82"/>
-      <c r="G145" s="83"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="86"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="46" t="s">
@@ -7867,27 +7999,27 @@
       <c r="A152" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="84"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="86"/>
+      <c r="B152" s="78"/>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="80"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B153" s="78" t="s">
+      <c r="B153" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C153" s="79" t="s">
+      <c r="C153" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D153" s="79" t="s">
+      <c r="D153" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E153" s="80" t="s">
+      <c r="E153" s="83" t="s">
         <v>84</v>
       </c>
       <c r="F153" s="43" t="s">
@@ -7902,14 +8034,14 @@
       <c r="A154" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B154" s="81" t="s">
+      <c r="B154" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C154" s="82"/>
-      <c r="D154" s="82"/>
-      <c r="E154" s="82"/>
-      <c r="F154" s="82"/>
-      <c r="G154" s="83"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="86"/>
     </row>
     <row r="155" spans="1:7" ht="30.95" customHeight="1">
       <c r="A155" s="46" t="s">
@@ -7989,27 +8121,27 @@
       <c r="A159" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B159" s="84"/>
-      <c r="C159" s="85"/>
-      <c r="D159" s="85"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="86"/>
+      <c r="B159" s="78"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="80"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B160" s="78" t="s">
+      <c r="B160" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="79" t="s">
+      <c r="C160" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="D160" s="79" t="s">
+      <c r="D160" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="80" t="s">
+      <c r="E160" s="83" t="s">
         <v>96</v>
       </c>
       <c r="F160" s="43" t="s">
@@ -8024,14 +8156,14 @@
       <c r="A161" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="81" t="s">
+      <c r="B161" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C161" s="82"/>
-      <c r="D161" s="82"/>
-      <c r="E161" s="82"/>
-      <c r="F161" s="82"/>
-      <c r="G161" s="83"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="86"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="46" t="s">
@@ -8130,27 +8262,27 @@
       <c r="A167" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="84"/>
-      <c r="C167" s="85"/>
-      <c r="D167" s="85"/>
-      <c r="E167" s="85"/>
-      <c r="F167" s="85"/>
-      <c r="G167" s="86"/>
+      <c r="B167" s="78"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="79"/>
+      <c r="F167" s="79"/>
+      <c r="G167" s="80"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B168" s="78" t="s">
+      <c r="B168" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="79" t="s">
+      <c r="C168" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D168" s="79" t="s">
+      <c r="D168" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="E168" s="80" t="s">
+      <c r="E168" s="83" t="s">
         <v>98</v>
       </c>
       <c r="F168" s="43" t="s">
@@ -8165,14 +8297,14 @@
       <c r="A169" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B169" s="81" t="s">
+      <c r="B169" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="82"/>
-      <c r="D169" s="82"/>
-      <c r="E169" s="82"/>
-      <c r="F169" s="82"/>
-      <c r="G169" s="83"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="86"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="46" t="s">
@@ -8271,27 +8403,27 @@
       <c r="A175" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B175" s="84"/>
-      <c r="C175" s="85"/>
-      <c r="D175" s="85"/>
-      <c r="E175" s="85"/>
-      <c r="F175" s="85"/>
-      <c r="G175" s="86"/>
+      <c r="B175" s="78"/>
+      <c r="C175" s="79"/>
+      <c r="D175" s="79"/>
+      <c r="E175" s="79"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="80"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="78" t="s">
+      <c r="B176" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C176" s="79" t="s">
+      <c r="C176" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D176" s="79" t="s">
+      <c r="D176" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E176" s="80" t="s">
+      <c r="E176" s="83" t="s">
         <v>100</v>
       </c>
       <c r="F176" s="43" t="s">
@@ -8306,14 +8438,14 @@
       <c r="A177" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="81" t="s">
+      <c r="B177" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="82"/>
-      <c r="D177" s="82"/>
-      <c r="E177" s="82"/>
-      <c r="F177" s="82"/>
-      <c r="G177" s="83"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="86"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="46" t="s">
@@ -8412,27 +8544,27 @@
       <c r="A183" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B183" s="84"/>
-      <c r="C183" s="85"/>
-      <c r="D183" s="85"/>
-      <c r="E183" s="85"/>
-      <c r="F183" s="85"/>
-      <c r="G183" s="86"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="80"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="78" t="s">
+      <c r="B184" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C184" s="79" t="s">
+      <c r="C184" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D184" s="79" t="s">
+      <c r="D184" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E184" s="80" t="s">
+      <c r="E184" s="83" t="s">
         <v>101</v>
       </c>
       <c r="F184" s="43" t="s">
@@ -8447,14 +8579,14 @@
       <c r="A185" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="81" t="s">
+      <c r="B185" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C185" s="82"/>
-      <c r="D185" s="82"/>
-      <c r="E185" s="82"/>
-      <c r="F185" s="82"/>
-      <c r="G185" s="83"/>
+      <c r="C185" s="85"/>
+      <c r="D185" s="85"/>
+      <c r="E185" s="85"/>
+      <c r="F185" s="85"/>
+      <c r="G185" s="86"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="46" t="s">
@@ -8553,27 +8685,27 @@
       <c r="A191" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="84"/>
-      <c r="C191" s="85"/>
-      <c r="D191" s="85"/>
-      <c r="E191" s="85"/>
-      <c r="F191" s="85"/>
-      <c r="G191" s="86"/>
+      <c r="B191" s="78"/>
+      <c r="C191" s="79"/>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
+      <c r="F191" s="79"/>
+      <c r="G191" s="80"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B192" s="78" t="s">
+      <c r="B192" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C192" s="79" t="s">
+      <c r="C192" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D192" s="79" t="s">
+      <c r="D192" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E192" s="80" t="s">
+      <c r="E192" s="83" t="s">
         <v>105</v>
       </c>
       <c r="F192" s="43" t="s">
@@ -8588,14 +8720,14 @@
       <c r="A193" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B193" s="81" t="s">
+      <c r="B193" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C193" s="82"/>
-      <c r="D193" s="82"/>
-      <c r="E193" s="82"/>
-      <c r="F193" s="82"/>
-      <c r="G193" s="83"/>
+      <c r="C193" s="85"/>
+      <c r="D193" s="85"/>
+      <c r="E193" s="85"/>
+      <c r="F193" s="85"/>
+      <c r="G193" s="86"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="46" t="s">
@@ -8694,27 +8826,27 @@
       <c r="A199" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B199" s="84"/>
-      <c r="C199" s="85"/>
-      <c r="D199" s="85"/>
-      <c r="E199" s="85"/>
-      <c r="F199" s="85"/>
-      <c r="G199" s="86"/>
+      <c r="B199" s="78"/>
+      <c r="C199" s="79"/>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="79"/>
+      <c r="G199" s="80"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="78" t="s">
+      <c r="B200" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C200" s="79" t="s">
+      <c r="C200" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D200" s="79" t="s">
+      <c r="D200" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="E200" s="80" t="s">
+      <c r="E200" s="83" t="s">
         <v>106</v>
       </c>
       <c r="F200" s="43" t="s">
@@ -8729,14 +8861,14 @@
       <c r="A201" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B201" s="81" t="s">
+      <c r="B201" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C201" s="82"/>
-      <c r="D201" s="82"/>
-      <c r="E201" s="82"/>
-      <c r="F201" s="82"/>
-      <c r="G201" s="83"/>
+      <c r="C201" s="85"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
+      <c r="F201" s="85"/>
+      <c r="G201" s="86"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="46" t="s">
@@ -8835,27 +8967,27 @@
       <c r="A207" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B207" s="84"/>
-      <c r="C207" s="85"/>
-      <c r="D207" s="85"/>
-      <c r="E207" s="85"/>
-      <c r="F207" s="85"/>
-      <c r="G207" s="86"/>
+      <c r="B207" s="78"/>
+      <c r="C207" s="79"/>
+      <c r="D207" s="79"/>
+      <c r="E207" s="79"/>
+      <c r="F207" s="79"/>
+      <c r="G207" s="80"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="78" t="s">
+      <c r="B208" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="C208" s="79" t="s">
+      <c r="C208" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D208" s="79" t="s">
+      <c r="D208" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E208" s="80" t="s">
+      <c r="E208" s="83" t="s">
         <v>107</v>
       </c>
       <c r="F208" s="43" t="s">
@@ -8870,14 +9002,14 @@
       <c r="A209" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B209" s="81" t="s">
+      <c r="B209" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C209" s="82"/>
-      <c r="D209" s="82"/>
-      <c r="E209" s="82"/>
-      <c r="F209" s="82"/>
-      <c r="G209" s="83"/>
+      <c r="C209" s="85"/>
+      <c r="D209" s="85"/>
+      <c r="E209" s="85"/>
+      <c r="F209" s="85"/>
+      <c r="G209" s="86"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="46" t="s">
@@ -8976,27 +9108,27 @@
       <c r="A215" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B215" s="84"/>
-      <c r="C215" s="85"/>
-      <c r="D215" s="85"/>
-      <c r="E215" s="85"/>
-      <c r="F215" s="85"/>
-      <c r="G215" s="86"/>
+      <c r="B215" s="78"/>
+      <c r="C215" s="79"/>
+      <c r="D215" s="79"/>
+      <c r="E215" s="79"/>
+      <c r="F215" s="79"/>
+      <c r="G215" s="80"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="B216" s="78" t="s">
+      <c r="B216" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="C216" s="79" t="s">
+      <c r="C216" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="D216" s="79" t="s">
+      <c r="D216" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E216" s="80" t="s">
+      <c r="E216" s="83" t="s">
         <v>108</v>
       </c>
       <c r="F216" s="43" t="s">
@@ -9011,14 +9143,14 @@
       <c r="A217" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B217" s="81" t="s">
+      <c r="B217" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C217" s="82"/>
-      <c r="D217" s="82"/>
-      <c r="E217" s="82"/>
-      <c r="F217" s="82"/>
-      <c r="G217" s="83"/>
+      <c r="C217" s="85"/>
+      <c r="D217" s="85"/>
+      <c r="E217" s="85"/>
+      <c r="F217" s="85"/>
+      <c r="G217" s="86"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="46" t="s">
@@ -9117,27 +9249,27 @@
       <c r="A223" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B223" s="84"/>
-      <c r="C223" s="85"/>
-      <c r="D223" s="85"/>
-      <c r="E223" s="85"/>
-      <c r="F223" s="85"/>
-      <c r="G223" s="86"/>
+      <c r="B223" s="78"/>
+      <c r="C223" s="79"/>
+      <c r="D223" s="79"/>
+      <c r="E223" s="79"/>
+      <c r="F223" s="79"/>
+      <c r="G223" s="80"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B224" s="78" t="s">
+      <c r="B224" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C224" s="79" t="s">
+      <c r="C224" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="79" t="s">
+      <c r="D224" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E224" s="80" t="s">
+      <c r="E224" s="83" t="s">
         <v>109</v>
       </c>
       <c r="F224" s="43" t="s">
@@ -9152,14 +9284,14 @@
       <c r="A225" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B225" s="81" t="s">
+      <c r="B225" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C225" s="82"/>
-      <c r="D225" s="82"/>
-      <c r="E225" s="82"/>
-      <c r="F225" s="82"/>
-      <c r="G225" s="83"/>
+      <c r="C225" s="85"/>
+      <c r="D225" s="85"/>
+      <c r="E225" s="85"/>
+      <c r="F225" s="85"/>
+      <c r="G225" s="86"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="46" t="s">
@@ -9258,27 +9390,27 @@
       <c r="A231" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B231" s="84"/>
-      <c r="C231" s="85"/>
-      <c r="D231" s="85"/>
-      <c r="E231" s="85"/>
-      <c r="F231" s="85"/>
-      <c r="G231" s="86"/>
+      <c r="B231" s="78"/>
+      <c r="C231" s="79"/>
+      <c r="D231" s="79"/>
+      <c r="E231" s="79"/>
+      <c r="F231" s="79"/>
+      <c r="G231" s="80"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B232" s="78" t="s">
+      <c r="B232" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C232" s="79" t="s">
+      <c r="C232" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D232" s="79" t="s">
+      <c r="D232" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E232" s="80" t="s">
+      <c r="E232" s="83" t="s">
         <v>115</v>
       </c>
       <c r="F232" s="43" t="s">
@@ -9293,14 +9425,14 @@
       <c r="A233" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B233" s="81" t="s">
+      <c r="B233" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C233" s="82"/>
-      <c r="D233" s="82"/>
-      <c r="E233" s="82"/>
-      <c r="F233" s="82"/>
-      <c r="G233" s="83"/>
+      <c r="C233" s="85"/>
+      <c r="D233" s="85"/>
+      <c r="E233" s="85"/>
+      <c r="F233" s="85"/>
+      <c r="G233" s="86"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="46" t="s">
@@ -9401,27 +9533,27 @@
       <c r="A239" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B239" s="84"/>
-      <c r="C239" s="85"/>
-      <c r="D239" s="85"/>
-      <c r="E239" s="85"/>
-      <c r="F239" s="85"/>
-      <c r="G239" s="86"/>
+      <c r="B239" s="78"/>
+      <c r="C239" s="79"/>
+      <c r="D239" s="79"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="79"/>
+      <c r="G239" s="80"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="B240" s="78" t="s">
+      <c r="B240" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="C240" s="79" t="s">
+      <c r="C240" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D240" s="79" t="s">
+      <c r="D240" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E240" s="80" t="s">
+      <c r="E240" s="83" t="s">
         <v>115</v>
       </c>
       <c r="F240" s="43" t="s">
@@ -9436,14 +9568,14 @@
       <c r="A241" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B241" s="81" t="s">
+      <c r="B241" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C241" s="82"/>
-      <c r="D241" s="82"/>
-      <c r="E241" s="82"/>
-      <c r="F241" s="82"/>
-      <c r="G241" s="83"/>
+      <c r="C241" s="85"/>
+      <c r="D241" s="85"/>
+      <c r="E241" s="85"/>
+      <c r="F241" s="85"/>
+      <c r="G241" s="86"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="46" t="s">
@@ -9525,246 +9657,469 @@
       <c r="A246" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B246" s="84"/>
-      <c r="C246" s="85"/>
-      <c r="D246" s="85"/>
-      <c r="E246" s="85"/>
-      <c r="F246" s="85"/>
-      <c r="G246" s="86"/>
+      <c r="B246" s="78"/>
+      <c r="C246" s="79"/>
+      <c r="D246" s="79"/>
+      <c r="E246" s="79"/>
+      <c r="F246" s="79"/>
+      <c r="G246" s="80"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
+      <c r="A247" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="B247" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C247" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D247" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E247" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F247" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G247" s="44" t="str">
+        <f>IF(COUNTIF(F250:F252,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F250:F252,"Fail")&gt;0,"Fail",IF(COUNTIF(F250:F252,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A248" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B248" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C248" s="85"/>
+      <c r="D248" s="85"/>
+      <c r="E248" s="85"/>
+      <c r="F248" s="85"/>
+      <c r="G248" s="86"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
+      <c r="A249" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B249" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C249" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D249" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E249" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G249" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="150">
+      <c r="A250" s="47">
+        <v>1</v>
+      </c>
+      <c r="B250" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C250" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D250" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E250" s="49"/>
+      <c r="F250" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G250" s="51"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75">
+      <c r="A251" s="47">
+        <v>2</v>
+      </c>
+      <c r="B251" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C251" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D251" s="49"/>
+      <c r="E251" s="49"/>
+      <c r="F251" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G251" s="51"/>
+    </row>
+    <row r="252" spans="1:7" ht="30">
+      <c r="A252" s="47">
+        <v>3</v>
+      </c>
+      <c r="B252" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C252" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D252" s="49"/>
+      <c r="E252" s="49"/>
+      <c r="F252" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G252" s="51"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
+      <c r="A253" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" s="78"/>
+      <c r="C253" s="79"/>
+      <c r="D253" s="79"/>
+      <c r="E253" s="79"/>
+      <c r="F253" s="79"/>
+      <c r="G253" s="80"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
+      <c r="A254" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B254" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C254" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D254" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E254" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F254" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G254" s="44" t="str">
+        <f>IF(COUNTIF(F257:F259,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F257:F259,"Fail")&gt;0,"Fail",IF(COUNTIF(F257:F259,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A255" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B255" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" s="85"/>
+      <c r="D255" s="85"/>
+      <c r="E255" s="85"/>
+      <c r="F255" s="85"/>
+      <c r="G255" s="86"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
+      <c r="A256" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B256" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D256" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E256" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G256" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="150">
+      <c r="A257" s="47">
+        <v>1</v>
+      </c>
+      <c r="B257" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C257" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D257" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E257" s="49"/>
+      <c r="F257" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G257" s="51"/>
+    </row>
+    <row r="258" spans="1:7" ht="15.75">
+      <c r="A258" s="47">
+        <v>2</v>
+      </c>
+      <c r="B258" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C258" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D258" s="49"/>
+      <c r="E258" s="49"/>
+      <c r="F258" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G258" s="51"/>
+    </row>
+    <row r="259" spans="1:7" ht="30">
+      <c r="A259" s="47">
+        <v>3</v>
+      </c>
+      <c r="B259" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C259" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D259" s="49"/>
+      <c r="E259" s="49"/>
+      <c r="F259" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G259" s="51"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
+      <c r="A260" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260" s="78"/>
+      <c r="C260" s="79"/>
+      <c r="D260" s="79"/>
+      <c r="E260" s="79"/>
+      <c r="F260" s="79"/>
+      <c r="G260" s="80"/>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
+      <c r="A261" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B261" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C261" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D261" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E261" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G261" s="44" t="str">
+        <f>IF(COUNTIF(F264:F271,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F264:F271,"Fail")&gt;0,"Fail",IF(COUNTIF(F264:F271,"")=0,"Pass","Not Executed")))</f>
+        <v>Not Executed</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A262" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B262" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C262" s="85"/>
+      <c r="D262" s="85"/>
+      <c r="E262" s="85"/>
+      <c r="F262" s="85"/>
+      <c r="G262" s="86"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
+      <c r="A263" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B263" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D263" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E263" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F263" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G263" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="150">
+      <c r="A264" s="47">
+        <v>1</v>
+      </c>
+      <c r="B264" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C264" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D264" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E264" s="49"/>
+      <c r="F264" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G264" s="51"/>
+    </row>
+    <row r="265" spans="1:7" ht="15.75">
+      <c r="A265" s="47">
+        <v>2</v>
+      </c>
+      <c r="B265" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="C265" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D265" s="49"/>
+      <c r="E265" s="49"/>
+      <c r="F265" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G265" s="51"/>
+    </row>
+    <row r="266" spans="1:7" ht="30">
+      <c r="A266" s="47">
+        <v>3</v>
+      </c>
+      <c r="B266" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D266" s="49"/>
+      <c r="E266" s="49"/>
+      <c r="F266" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G266" s="51"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75">
+      <c r="A267" s="47">
+        <v>4</v>
+      </c>
+      <c r="B267" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C267" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="D267" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="E267" s="49"/>
+      <c r="F267" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G267" s="51"/>
+    </row>
+    <row r="268" spans="1:7" ht="30">
+      <c r="A268" s="47">
+        <v>5</v>
+      </c>
+      <c r="B268" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C268" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D268" s="49"/>
+      <c r="E268" s="49"/>
+      <c r="F268" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G268" s="51"/>
+    </row>
+    <row r="269" spans="1:7" ht="15.75">
+      <c r="A269" s="47">
+        <v>6</v>
+      </c>
+      <c r="B269" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C269" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D269" s="49"/>
+      <c r="E269" s="49"/>
+      <c r="F269" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G269" s="51"/>
+    </row>
+    <row r="270" spans="1:7" ht="15.75">
+      <c r="A270" s="47">
+        <v>7</v>
+      </c>
+      <c r="B270" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C270" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D270" s="49"/>
+      <c r="E270" s="49"/>
+      <c r="F270" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G270" s="51"/>
+    </row>
+    <row r="271" spans="1:7" ht="135">
+      <c r="A271" s="47">
+        <v>8</v>
+      </c>
+      <c r="B271" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C271" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D271" s="49"/>
+      <c r="E271" s="49"/>
+      <c r="F271" s="50"/>
+      <c r="G271" s="51"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
+      <c r="A272" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B272" s="78"/>
+      <c r="C272" s="79"/>
+      <c r="D272" s="79"/>
+      <c r="E272" s="79"/>
+      <c r="F272" s="79"/>
+      <c r="G272" s="80"/>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="8"/>
@@ -9829,15 +10184,6 @@
       <c r="F279" s="8"/>
       <c r="G279" s="8"/>
     </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
-    </row>
     <row r="281" spans="1:7">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
@@ -11260,7 +11606,7 @@
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
     </row>
-    <row r="439" spans="1:8" s="35" customFormat="1">
+    <row r="439" spans="1:8">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -11268,7 +11614,6 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
-      <c r="H439" s="12"/>
     </row>
     <row r="440" spans="1:8" s="35" customFormat="1">
       <c r="A440" s="8"/>
@@ -11320,13 +11665,14 @@
       <c r="G444" s="8"/>
       <c r="H444" s="12"/>
     </row>
-    <row r="445" spans="1:8" s="35" customFormat="1" ht="15.75">
-      <c r="A445" s="15"/>
-      <c r="B445" s="34"/>
-      <c r="C445" s="34"/>
-      <c r="D445" s="55"/>
-      <c r="E445" s="56"/>
-      <c r="F445" s="57"/>
+    <row r="445" spans="1:8" s="35" customFormat="1">
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
       <c r="H445" s="12"/>
     </row>
     <row r="446" spans="1:8" s="35" customFormat="1" ht="15.75">
@@ -15901,13 +16247,14 @@
       <c r="F953" s="57"/>
       <c r="H953" s="12"/>
     </row>
-    <row r="954" spans="1:8" ht="15.75">
+    <row r="954" spans="1:8" s="35" customFormat="1" ht="15.75">
       <c r="A954" s="15"/>
       <c r="B954" s="34"/>
       <c r="C954" s="34"/>
       <c r="D954" s="55"/>
       <c r="E954" s="56"/>
       <c r="F954" s="57"/>
+      <c r="H954" s="12"/>
     </row>
     <row r="955" spans="1:8" ht="15.75">
       <c r="A955" s="15"/>
@@ -15973,59 +16320,48 @@
       <c r="E962" s="56"/>
       <c r="F962" s="57"/>
     </row>
+    <row r="963" spans="1:6" ht="15.75">
+      <c r="A963" s="15"/>
+      <c r="B963" s="34"/>
+      <c r="C963" s="34"/>
+      <c r="D963" s="55"/>
+      <c r="E963" s="56"/>
+      <c r="F963" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="B239:G239"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:G113"/>
+  <mergeCells count="99">
+    <mergeCell ref="B260:G260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B272:G272"/>
+    <mergeCell ref="B247:E247"/>
+    <mergeCell ref="B248:G248"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="B255:G255"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="B246:G246"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B72:G72"/>
@@ -16042,32 +16378,60 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B241:G241"/>
-    <mergeCell ref="B246:G246"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B207:G207"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="B239:G239"/>
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B231:G231"/>
+    <mergeCell ref="B232:E232"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F445:F447 F452:F458 F671:F673 F661:F666 F463:F472 F477:F480 F485:F490 F495:F503 F508:F517 F522:F532 F537:F547 F563:F569 F591:F593 F552:F558 F574:F580 F585:F586 F598:F604 F609:F615 F631:F633 F620:F626 F638:F641 F646:F648 F653:F656 F243:F245 F27:F30 F227:F230 F219:F222 F211:F214 F203:F206 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F235:F238 F95:F97 F85:F87 F76:F78 F21:F22" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F446:F448 F453:F459 F672:F674 F662:F667 F464:F473 F478:F481 F486:F491 F496:F504 F509:F518 F523:F533 F538:F548 F564:F570 F592:F594 F553:F559 F575:F581 F586:F587 F599:F605 F610:F616 F632:F634 F621:F627 F639:F642 F647:F649 F654:F657 F243:F245 F27:F30 F227:F230 F219:F222 F211:F214 F203:F206 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F235:F238 F95:F97 F85:F87 F76:F78 F21:F22 F250:F252 F257:F259 F264:F271" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TCS_NEWUI_Search options.xlsx
+++ b/TCS_NEWUI_Search options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE590F7-56C0-4387-A02C-FA004A56A17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C969F6-F4AC-487E-AC9C-403E0EDB8A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="337">
   <si>
     <t>US#</t>
   </si>
@@ -729,9 +729,6 @@
     <t>US:WEB-7626_TC 25</t>
   </si>
   <si>
-    <t>Verify the Language Search option in All tabs and in its individual tab</t>
-  </si>
-  <si>
     <t>Select option/options</t>
   </si>
   <si>
@@ -760,14 +757,6 @@
   </si>
   <si>
     <t>US:WEB-7626_TC 27</t>
-  </si>
-  <si>
-    <t>Verify the Coop Advertisers Search option in All tabs and in its individual tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Coop Advertisers search should have a search bar to Filter Coop Advertisers with Selected Displayed and Exclude button
-2. It should show options of all Coop Advertisers with Load More button
-3. Individual tab of Coop Advertisers Search should only show options of Coop Advertisers </t>
   </si>
   <si>
     <t>US:WEB-7626_TC 28</t>
@@ -1077,6 +1066,188 @@
 55-65 seconds (60)
 66+ seconds (&gt;60)</t>
   </si>
+  <si>
+    <t>Verify the More filters tab in serach options</t>
+  </si>
+  <si>
+    <t>Verify Message Element options</t>
+  </si>
+  <si>
+    <t>Verify Multicultural Media options</t>
+  </si>
+  <si>
+    <t>Verify Target options</t>
+  </si>
+  <si>
+    <t>Verify Details view should display the New fields</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 33</t>
+  </si>
+  <si>
+    <t>Click on More Filters tab</t>
+  </si>
+  <si>
+    <t>1.User should be able to see below search options in More Filters tab
+1.Message Elements
+2.Multicultural Media
+3.Coop Advertiser
+4.Target
+5. Language
+2. User should be able to see Reset All, Cancel and Apply button
+In default state Reset All should be disabled and Cancel and Apply button should be Enabled.</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should be able to see Message Element option with question mark beside it, which on clicking gives description about the option
+2.A filter bar should be there to filter Message Element, It should filter the options as per the keyword entered in the field
+3. Filter bar should have "Select Dispalyed" button- on clicking it all the options of message elements should be selected/checked.
+4. Filter bar should have "Exclude" button - It ssould exclude the optons selected from the filter also it should display as excluded in its respective summary tag
+5. User should be able to see the message element options like 2D Code, Coupon, Direct Response etc with a checkbox
+6. Load More button should be displayed at the bottom of the option which should be enabled if there are more options for the search.
+On clicking enabled Load More button more options should be displayed.
+</t>
+  </si>
+  <si>
+    <t>1.User should be able to select multiple options
+2.The selected option should be highlighted
+3.Reset ALL , Cancel and Apply button should enbaled
+4. Records should be filtered in the report as per the option selected by the User</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should be able to see Multicultural Media option with question mark beside it, which on clicking gives description about the option
+2.A filter bar should be there to filter Multicultural Media, It should filter the options as per the keyword entered in the field
+3. Filter bar should have "Select Dispalyed" button- on clicking it all the options of Multicultural Media should be selected/checked.
+4. Filter bar should have "Exclude" button - It ssould exclude the optons selected from the filter also it should display as excluded in its respective summary tag
+5. User should be able to see the Multicultural Media options like Canadain Media, LGBTQ+ Media etc with a checkbox
+6. Load More button should be displayed at the bottom of the option which should be enabled if there are more options for the search.
+On clicking enabled Load More button more options should be displayed.
+</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should be able to see Target option with question mark beside it, which on clicking gives description about the option
+2. User should be able to see the Target options Business and Consumer with a checkbox
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should be able to see Coop Advertiser option with question mark beside it, which on clicking gives description about the option
+2.A filter bar should be there to filter Coop Advertiser, It should filter the options as per the keyword entered in the field
+3. Filter bar should have "Select Dispalyed" button- on clicking it all the options of Coop Advertiser should be selected/checked.
+4. Filter bar should have "Exclude" button - It ssould exclude the optons selected from the filter also it should display as excluded in its respective summary tag
+5. User should be able to see the Coop Advertiser options like ACME, Amazon etc with a checkbox
+6. Load More button should be displayed at the bottom of the option which should be enabled if there are more options for the search.
+On clicking enabled Load More button more options should be displayed.
+</t>
+  </si>
+  <si>
+    <t>Verify the Language Search option in All Fields and More Fields</t>
+  </si>
+  <si>
+    <t>Verify Coop Advertiser options in All Fields and More Fields</t>
+  </si>
+  <si>
+    <t>Verify Target options in All Fields and More Fields</t>
+  </si>
+  <si>
+    <t>Verify Multicultural Media options in All Fields and More Fields</t>
+  </si>
+  <si>
+    <t>Verify Message Element options in All Fields and More Fields</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 37</t>
+  </si>
+  <si>
+    <t>Go to AgGrid section and select Details View</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User should be able to see details view of the AdCodes</t>
+  </si>
+  <si>
+    <t>Verify Details view and Its EXPORT</t>
+  </si>
+  <si>
+    <t>1 Details View should display Message Element and Multicultural Media Fields
+2. Both should also reflect in Field options window 
+3. User should be able to EXPORT those Fields data in their EXCEL sheet</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>SMRT-8459</t>
+  </si>
+  <si>
+    <t>Verify (?) icon beside each fields in search options</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 38</t>
+  </si>
+  <si>
+    <t>Verify each fields</t>
+  </si>
+  <si>
+    <t>Question mark (?) next to field title in Search Options should be displayed</t>
+  </si>
+  <si>
+    <t>Click on question mark (?) icon</t>
+  </si>
+  <si>
+    <t>Help info related to the field should be displayed</t>
+  </si>
+  <si>
+    <t>For list components, old values are wiped out after clicking on load more</t>
+  </si>
+  <si>
+    <t>SMRT-8524</t>
+  </si>
+  <si>
+    <t>Again click on question mark (?) icon</t>
+  </si>
+  <si>
+    <t>Help info related to the field should be hidden</t>
+  </si>
+  <si>
+    <t>US:WEB-7626_TC 39</t>
+  </si>
+  <si>
+    <t>Verify Help text of all fields</t>
+  </si>
+  <si>
+    <t>Help info should be similar according to requirement</t>
+  </si>
 </sst>
 </file>
 
@@ -1085,7 +1256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1403,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1807,7 +1985,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1976,6 +2154,19 @@
     <xf numFmtId="10" fontId="20" fillId="5" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="16" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="16" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="26" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2003,15 +2194,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2022,6 +2204,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,15 +2229,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,9 +2247,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2318,7 +2506,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2327,7 +2515,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2347,11 +2535,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48867968"/>
-        <c:axId val="48886144"/>
+        <c:axId val="1004322736"/>
+        <c:axId val="1004314032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48867968"/>
+        <c:axId val="1004322736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +2561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48886144"/>
+        <c:crossAx val="1004314032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2381,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48886144"/>
+        <c:axId val="1004314032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="48867968"/>
+        <c:crossAx val="1004322736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2621,10 +2809,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.96875</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>7.6923076923076872E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,7 +3008,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2829,7 +3017,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,33 +3909,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A7" s="72"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="59" t="s">
         <v>30</v>
       </c>
@@ -3763,15 +3951,15 @@
       <c r="F7" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="76"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1">
       <c r="A8" s="67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="61">
         <f>'Search Options'!C11</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8" s="61">
         <f>'Search Options'!C12</f>
@@ -3783,15 +3971,15 @@
       </c>
       <c r="E8" s="61">
         <f>'Search Options'!C14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="61">
         <f>SUM(B8:E8)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G8" s="62">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.96875</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3809,7 +3997,7 @@
       </c>
       <c r="B10" s="64">
         <f>SUM(B8:B9)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="64">
         <f>SUM(C8:C9)</f>
@@ -3821,15 +4009,15 @@
       </c>
       <c r="E10" s="64">
         <f>SUM(E8:E9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="64">
         <f>SUM(F8:F9)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10" s="65">
         <f>SUM(G8:G8)</f>
-        <v>0.96875</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -3838,7 +4026,7 @@
       </c>
       <c r="G11" s="66">
         <f>100%-G10</f>
-        <v>3.125E-2</v>
+        <v>7.6923076923076872E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3861,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4139,8 +4327,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="77" t="s">
-        <v>240</v>
+      <c r="A2" s="82" t="s">
+        <v>237</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -4152,7 +4340,7 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="77"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4351,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4362,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4185,7 +4373,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -4196,7 +4384,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="77"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4206,7 +4394,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="77"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4219,7 +4407,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="77"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4229,7 +4417,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="77"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4239,7 +4427,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="77"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4249,7 +4437,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="77"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4257,11 +4445,11 @@
         <v>86</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="77"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4271,7 +4459,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="77"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -4281,7 +4469,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="77"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="3" t="s">
         <v>89</v>
       </c>
@@ -4292,7 +4480,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="77"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="3" t="s">
         <v>90</v>
       </c>
@@ -4303,7 +4491,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="77"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="3" t="s">
         <v>91</v>
       </c>
@@ -4314,7 +4502,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="77"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="3" t="s">
         <v>94</v>
       </c>
@@ -4325,7 +4513,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="77"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
@@ -4337,7 +4525,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="77"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="3" t="s">
         <v>102</v>
       </c>
@@ -4348,7 +4536,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="77"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
@@ -4361,7 +4549,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="77"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
@@ -4371,7 +4559,7 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="77"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="3" t="s">
         <v>110</v>
       </c>
@@ -4381,7 +4569,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="77"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="3" t="s">
         <v>111</v>
       </c>
@@ -4391,37 +4579,41 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="77"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="77"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="77"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="77"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="3" t="s">
         <v>116</v>
       </c>
@@ -4431,7 +4623,7 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="77"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="3" t="s">
         <v>127</v>
       </c>
@@ -4441,116 +4633,151 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="77"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="77"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="77"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="82"/>
+      <c r="B33" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="77"/>
-      <c r="B33" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="77"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="77"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="11" t="s">
+        <v>294</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>261</v>
+        <v>289</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="77"/>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="45">
-      <c r="A37" s="77"/>
-      <c r="B37" s="11">
-        <v>1</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>262</v>
+      <c r="A36" s="82"/>
+      <c r="B36" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="82"/>
+      <c r="B37" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="77"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="B40" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" customHeight="1">
       <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="13"/>
-      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="13"/>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:5">
@@ -4576,14 +4803,33 @@
     <row r="51" spans="1:5">
       <c r="A51" s="13"/>
       <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="C51" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45">
       <c r="A52" s="13"/>
-      <c r="B52" s="11"/>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="13"/>
-      <c r="B53" s="11"/>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="13"/>
@@ -4769,10 +5015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H963"/>
+  <dimension ref="A1:H967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView topLeftCell="A321" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5438,10 +5684,10 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="91"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="15"/>
@@ -5500,10 +5746,10 @@
       <c r="C6" s="17"/>
       <c r="D6" s="8"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="93"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="15"/>
@@ -5519,8 +5765,8 @@
         <v>30</v>
       </c>
       <c r="G7" s="26">
-        <f>COUNTIF(G11:G1089,"Pass")</f>
-        <v>30</v>
+        <f>COUNTIF(G11:G1093,"Pass")</f>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5535,7 +5781,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="26">
-        <f>COUNTIF(G12:G1090,"Fail")</f>
+        <f>COUNTIF(G12:G1094,"Fail")</f>
         <v>1</v>
       </c>
     </row>
@@ -5553,7 +5799,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="26">
-        <f>COUNTIF(G13:G1091,"Blocked")</f>
+        <f>COUNTIF(G13:G1095,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -5569,8 +5815,8 @@
         <v>37</v>
       </c>
       <c r="G10" s="26">
-        <f>COUNTIF(G14:G1092,"Not Executed")</f>
-        <v>1</v>
+        <f>COUNTIF(G14:G1096,"Not Executed")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5580,7 +5826,7 @@
       </c>
       <c r="C11" s="17">
         <f>G7</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
@@ -5622,7 +5868,7 @@
       </c>
       <c r="C14" s="17">
         <f>G10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="15"/>
@@ -5634,41 +5880,41 @@
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" s="38" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:7" s="38" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
+      <c r="A17" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
     </row>
     <row r="18" spans="1:7" s="38" customFormat="1">
       <c r="A18" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="85" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="43" t="s">
@@ -5683,14 +5929,14 @@
       <c r="A19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" spans="1:7" s="38" customFormat="1">
       <c r="A20" s="46" t="s">
@@ -5755,27 +6001,27 @@
       <c r="A23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="85" t="s">
         <v>124</v>
       </c>
       <c r="F24" s="43" t="s">
@@ -5790,14 +6036,14 @@
       <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="46" t="s">
@@ -5864,7 +6110,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
@@ -5878,10 +6124,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="51"/>
@@ -5894,27 +6140,27 @@
       <c r="A31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1">
       <c r="A32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="85" t="s">
         <v>126</v>
       </c>
       <c r="F32" s="43" t="s">
@@ -5929,14 +6175,14 @@
       <c r="A33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="46" t="s">
@@ -6003,7 +6249,7 @@
         <v>130</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
@@ -6016,12 +6262,12 @@
       <c r="A38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A39" s="39" t="s">
@@ -6045,14 +6291,14 @@
       <c r="A40" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
+      <c r="B40" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
       <c r="A41" s="46" t="s">
@@ -6132,27 +6378,27 @@
       <c r="A45" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="78"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="91"/>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1">
       <c r="A46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="85" t="s">
         <v>76</v>
       </c>
       <c r="F46" s="43" t="s">
@@ -6167,14 +6413,14 @@
       <c r="A47" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="89"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1">
       <c r="A48" s="46" t="s">
@@ -6237,27 +6483,27 @@
       <c r="A51" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="80"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1">
       <c r="A52" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="85" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="43" t="s">
@@ -6272,14 +6518,14 @@
       <c r="A53" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="86"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1">
       <c r="A54" s="46" t="s">
@@ -6342,27 +6588,27 @@
       <c r="A57" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91"/>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1">
       <c r="A58" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="82" t="s">
+      <c r="C58" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="85" t="s">
         <v>79</v>
       </c>
       <c r="F58" s="43" t="s">
@@ -6377,14 +6623,14 @@
       <c r="A59" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="89"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="88"/>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1">
       <c r="A60" s="46" t="s">
@@ -6451,7 +6697,7 @@
         <v>148</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
@@ -6481,27 +6727,27 @@
       <c r="A65" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="91"/>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1">
       <c r="A66" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="82" t="s">
+      <c r="D66" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="83" t="s">
+      <c r="E66" s="85" t="s">
         <v>78</v>
       </c>
       <c r="F66" s="43" t="s">
@@ -6516,14 +6762,14 @@
       <c r="A67" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="84" t="s">
+      <c r="B67" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="86"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1">
       <c r="A68" s="46" t="s">
@@ -6590,7 +6836,7 @@
         <v>149</v>
       </c>
       <c r="C71" s="49" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
@@ -6603,27 +6849,27 @@
       <c r="A72" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="80"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="91"/>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1">
       <c r="A73" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="81" t="s">
+      <c r="B73" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="83" t="s">
+      <c r="E73" s="85" t="s">
         <v>87</v>
       </c>
       <c r="F73" s="43" t="s">
@@ -6638,14 +6884,14 @@
       <c r="A74" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="87" t="s">
+      <c r="B74" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="89"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="88"/>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A75" s="46" t="s">
@@ -6763,27 +7009,27 @@
       <c r="A81" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="80"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="91"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A82" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C82" s="82" t="s">
+      <c r="C82" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="82" t="s">
+      <c r="D82" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="83" t="s">
+      <c r="E82" s="85" t="s">
         <v>88</v>
       </c>
       <c r="F82" s="43" t="s">
@@ -6798,14 +7044,14 @@
       <c r="A83" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="84" t="s">
+      <c r="B83" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="86"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="94"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="46" t="s">
@@ -6903,13 +7149,13 @@
         <v>5</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C89" s="49" t="s">
         <v>144</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E89" s="49"/>
       <c r="F89" s="50" t="s">
@@ -6938,27 +7184,27 @@
       <c r="A91" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="78"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="80"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="91"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A92" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B92" s="81" t="s">
+      <c r="B92" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="82" t="s">
+      <c r="C92" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="82" t="s">
+      <c r="D92" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="83" t="s">
+      <c r="E92" s="85" t="s">
         <v>86</v>
       </c>
       <c r="F92" s="43" t="s">
@@ -6973,14 +7219,14 @@
       <c r="A93" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="84" t="s">
+      <c r="B93" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="86"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="94"/>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1">
       <c r="A94" s="46" t="s">
@@ -7064,7 +7310,7 @@
         <v>147</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
@@ -7078,10 +7324,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
@@ -7095,10 +7341,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D100" s="49"/>
       <c r="E100" s="49"/>
@@ -7112,10 +7358,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
@@ -7129,10 +7375,10 @@
         <v>8</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
@@ -7145,27 +7391,27 @@
       <c r="A103" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B103" s="78"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="80"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="90"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="90"/>
+      <c r="G103" s="91"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="81" t="s">
+      <c r="B104" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="82" t="s">
+      <c r="C104" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="82" t="s">
+      <c r="D104" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="83" t="s">
+      <c r="E104" s="85" t="s">
         <v>80</v>
       </c>
       <c r="F104" s="43" t="s">
@@ -7180,14 +7426,14 @@
       <c r="A105" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="84" t="s">
+      <c r="B105" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="86"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="94"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="46" t="s">
@@ -7254,7 +7500,7 @@
         <v>151</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -7271,7 +7517,7 @@
         <v>152</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D110" s="49"/>
       <c r="E110" s="49"/>
@@ -7284,27 +7530,27 @@
       <c r="A111" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="78"/>
-      <c r="C111" s="79"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="80"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="90"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="91"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B112" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="82" t="s">
+      <c r="C112" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D112" s="82" t="s">
+      <c r="D112" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="83" t="s">
+      <c r="E112" s="85" t="s">
         <v>80</v>
       </c>
       <c r="F112" s="43" t="s">
@@ -7320,14 +7566,14 @@
       <c r="A113" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="84" t="s">
+      <c r="B113" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="86"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="94"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="46" t="s">
@@ -7424,27 +7670,27 @@
       <c r="A119" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B119" s="78"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="80"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="91"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C120" s="82" t="s">
+      <c r="C120" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D120" s="82" t="s">
+      <c r="D120" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="E120" s="83" t="s">
+      <c r="E120" s="85" t="s">
         <v>81</v>
       </c>
       <c r="F120" s="43" t="s">
@@ -7459,14 +7705,14 @@
       <c r="A121" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="84" t="s">
+      <c r="B121" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="86"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="93"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="94"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="46" t="s">
@@ -7533,7 +7779,7 @@
         <v>159</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
@@ -7553,7 +7799,7 @@
         <v>161</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E126" s="49"/>
       <c r="F126" s="50" t="s">
@@ -7565,27 +7811,27 @@
       <c r="A127" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="78"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="80"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="90"/>
+      <c r="E127" s="90"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="91"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C128" s="82" t="s">
+      <c r="C128" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D128" s="82" t="s">
+      <c r="D128" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E128" s="83" t="s">
+      <c r="E128" s="85" t="s">
         <v>82</v>
       </c>
       <c r="F128" s="43" t="s">
@@ -7600,14 +7846,14 @@
       <c r="A129" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="84" t="s">
+      <c r="B129" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="85"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="86"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="93"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="94"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="46" t="s">
@@ -7704,27 +7950,27 @@
       <c r="A135" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B135" s="78"/>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="80"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="91"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B136" s="81" t="s">
+      <c r="B136" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C136" s="82" t="s">
+      <c r="C136" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D136" s="82" t="s">
+      <c r="D136" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E136" s="83" t="s">
+      <c r="E136" s="85" t="s">
         <v>82</v>
       </c>
       <c r="F136" s="43" t="s">
@@ -7739,14 +7985,14 @@
       <c r="A137" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B137" s="84" t="s">
+      <c r="B137" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C137" s="85"/>
-      <c r="D137" s="85"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="86"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="93"/>
+      <c r="E137" s="93"/>
+      <c r="F137" s="93"/>
+      <c r="G137" s="94"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="46" t="s">
@@ -7830,7 +8076,7 @@
         <v>170</v>
       </c>
       <c r="C142" s="49" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D142" s="49"/>
       <c r="E142" s="49"/>
@@ -7843,27 +8089,27 @@
       <c r="A143" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B143" s="78"/>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="79"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="80"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="90"/>
+      <c r="E143" s="90"/>
+      <c r="F143" s="90"/>
+      <c r="G143" s="91"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="81" t="s">
+      <c r="B144" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="82" t="s">
+      <c r="C144" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="D144" s="82" t="s">
+      <c r="D144" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="E144" s="83" t="s">
+      <c r="E144" s="85" t="s">
         <v>82</v>
       </c>
       <c r="F144" s="43" t="s">
@@ -7878,14 +8124,14 @@
       <c r="A145" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B145" s="84" t="s">
+      <c r="B145" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="86"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="93"/>
+      <c r="E145" s="93"/>
+      <c r="F145" s="93"/>
+      <c r="G145" s="94"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="46" t="s">
@@ -7969,7 +8215,7 @@
         <v>174</v>
       </c>
       <c r="C150" s="49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D150" s="49"/>
       <c r="E150" s="49"/>
@@ -7986,7 +8232,7 @@
         <v>175</v>
       </c>
       <c r="C151" s="49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
@@ -7999,27 +8245,27 @@
       <c r="A152" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B152" s="78"/>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="80"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="91"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="B153" s="81" t="s">
+      <c r="B153" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C153" s="82" t="s">
+      <c r="C153" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D153" s="82" t="s">
+      <c r="D153" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="E153" s="83" t="s">
+      <c r="E153" s="85" t="s">
         <v>84</v>
       </c>
       <c r="F153" s="43" t="s">
@@ -8034,14 +8280,14 @@
       <c r="A154" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B154" s="84" t="s">
+      <c r="B154" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C154" s="85"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
-      <c r="G154" s="86"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="93"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="94"/>
     </row>
     <row r="155" spans="1:7" ht="30.95" customHeight="1">
       <c r="A155" s="46" t="s">
@@ -8121,27 +8367,27 @@
       <c r="A159" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B159" s="78"/>
-      <c r="C159" s="79"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="79"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="80"/>
+      <c r="B159" s="89"/>
+      <c r="C159" s="90"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="91"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="B160" s="81" t="s">
+      <c r="B160" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="82" t="s">
+      <c r="C160" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D160" s="82" t="s">
+      <c r="D160" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="83" t="s">
+      <c r="E160" s="85" t="s">
         <v>96</v>
       </c>
       <c r="F160" s="43" t="s">
@@ -8156,14 +8402,14 @@
       <c r="A161" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="84" t="s">
+      <c r="B161" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C161" s="85"/>
-      <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
-      <c r="G161" s="86"/>
+      <c r="C161" s="93"/>
+      <c r="D161" s="93"/>
+      <c r="E161" s="93"/>
+      <c r="F161" s="93"/>
+      <c r="G161" s="94"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="46" t="s">
@@ -8262,27 +8508,27 @@
       <c r="A167" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B167" s="78"/>
-      <c r="C167" s="79"/>
-      <c r="D167" s="79"/>
-      <c r="E167" s="79"/>
-      <c r="F167" s="79"/>
-      <c r="G167" s="80"/>
+      <c r="B167" s="89"/>
+      <c r="C167" s="90"/>
+      <c r="D167" s="90"/>
+      <c r="E167" s="90"/>
+      <c r="F167" s="90"/>
+      <c r="G167" s="91"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B168" s="81" t="s">
+      <c r="B168" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="82" t="s">
+      <c r="C168" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="D168" s="82" t="s">
+      <c r="D168" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="E168" s="83" t="s">
+      <c r="E168" s="85" t="s">
         <v>98</v>
       </c>
       <c r="F168" s="43" t="s">
@@ -8297,14 +8543,14 @@
       <c r="A169" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B169" s="84" t="s">
+      <c r="B169" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="85"/>
-      <c r="D169" s="85"/>
-      <c r="E169" s="85"/>
-      <c r="F169" s="85"/>
-      <c r="G169" s="86"/>
+      <c r="C169" s="93"/>
+      <c r="D169" s="93"/>
+      <c r="E169" s="93"/>
+      <c r="F169" s="93"/>
+      <c r="G169" s="94"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="46" t="s">
@@ -8373,7 +8619,7 @@
         <v>187</v>
       </c>
       <c r="C173" s="49" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -8403,27 +8649,27 @@
       <c r="A175" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B175" s="78"/>
-      <c r="C175" s="79"/>
-      <c r="D175" s="79"/>
-      <c r="E175" s="79"/>
-      <c r="F175" s="79"/>
-      <c r="G175" s="80"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="91"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C176" s="82" t="s">
+      <c r="C176" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="D176" s="82" t="s">
+      <c r="D176" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E176" s="83" t="s">
+      <c r="E176" s="85" t="s">
         <v>100</v>
       </c>
       <c r="F176" s="43" t="s">
@@ -8438,14 +8684,14 @@
       <c r="A177" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B177" s="84" t="s">
+      <c r="B177" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="85"/>
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="86"/>
+      <c r="C177" s="93"/>
+      <c r="D177" s="93"/>
+      <c r="E177" s="93"/>
+      <c r="F177" s="93"/>
+      <c r="G177" s="94"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="46" t="s">
@@ -8544,27 +8790,27 @@
       <c r="A183" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B183" s="78"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="80"/>
+      <c r="B183" s="89"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="90"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="90"/>
+      <c r="G183" s="91"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="81" t="s">
+      <c r="B184" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C184" s="82" t="s">
+      <c r="C184" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="D184" s="82" t="s">
+      <c r="D184" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="E184" s="83" t="s">
+      <c r="E184" s="85" t="s">
         <v>101</v>
       </c>
       <c r="F184" s="43" t="s">
@@ -8579,14 +8825,14 @@
       <c r="A185" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="84" t="s">
+      <c r="B185" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C185" s="85"/>
-      <c r="D185" s="85"/>
-      <c r="E185" s="85"/>
-      <c r="F185" s="85"/>
-      <c r="G185" s="86"/>
+      <c r="C185" s="93"/>
+      <c r="D185" s="93"/>
+      <c r="E185" s="93"/>
+      <c r="F185" s="93"/>
+      <c r="G185" s="94"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="46" t="s">
@@ -8685,27 +8931,27 @@
       <c r="A191" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="78"/>
-      <c r="C191" s="79"/>
-      <c r="D191" s="79"/>
-      <c r="E191" s="79"/>
-      <c r="F191" s="79"/>
-      <c r="G191" s="80"/>
+      <c r="B191" s="89"/>
+      <c r="C191" s="90"/>
+      <c r="D191" s="90"/>
+      <c r="E191" s="90"/>
+      <c r="F191" s="90"/>
+      <c r="G191" s="91"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="B192" s="81" t="s">
+      <c r="B192" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="C192" s="82" t="s">
+      <c r="C192" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="D192" s="82" t="s">
+      <c r="D192" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="E192" s="83" t="s">
+      <c r="E192" s="85" t="s">
         <v>105</v>
       </c>
       <c r="F192" s="43" t="s">
@@ -8720,14 +8966,14 @@
       <c r="A193" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B193" s="84" t="s">
+      <c r="B193" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C193" s="85"/>
-      <c r="D193" s="85"/>
-      <c r="E193" s="85"/>
-      <c r="F193" s="85"/>
-      <c r="G193" s="86"/>
+      <c r="C193" s="93"/>
+      <c r="D193" s="93"/>
+      <c r="E193" s="93"/>
+      <c r="F193" s="93"/>
+      <c r="G193" s="94"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="46" t="s">
@@ -8826,49 +9072,49 @@
       <c r="A199" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B199" s="78"/>
-      <c r="C199" s="79"/>
-      <c r="D199" s="79"/>
-      <c r="E199" s="79"/>
-      <c r="F199" s="79"/>
-      <c r="G199" s="80"/>
+      <c r="B199" s="89"/>
+      <c r="C199" s="90"/>
+      <c r="D199" s="90"/>
+      <c r="E199" s="90"/>
+      <c r="F199" s="90"/>
+      <c r="G199" s="91"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="81" t="s">
+      <c r="B200" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C200" s="82" t="s">
+      <c r="C200" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="D200" s="82" t="s">
+      <c r="D200" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="E200" s="83" t="s">
+      <c r="E200" s="85" t="s">
         <v>106</v>
       </c>
       <c r="F200" s="43" t="s">
         <v>43</v>
       </c>
       <c r="G200" s="44" t="str">
-        <f>IF(COUNTIF(F203:F206,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F203:F206,"Fail")&gt;0,"Fail",IF(COUNTIF(F203:F206,"")=0,"Pass","Not Executed")))</f>
-        <v>Pass</v>
+        <f>IF(COUNTIF(F203:F207,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F203:F207,"Fail")&gt;0,"Fail",IF(COUNTIF(F203:F207,"")=0,"Pass","Not Executed")))</f>
+        <v>Not Executed</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="39" customHeight="1">
       <c r="A201" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B201" s="84" t="s">
+      <c r="B201" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C201" s="85"/>
-      <c r="D201" s="85"/>
-      <c r="E201" s="85"/>
-      <c r="F201" s="85"/>
-      <c r="G201" s="86"/>
+      <c r="C201" s="93"/>
+      <c r="D201" s="93"/>
+      <c r="E201" s="93"/>
+      <c r="F201" s="93"/>
+      <c r="G201" s="94"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="46" t="s">
@@ -8904,7 +9150,7 @@
         <v>121</v>
       </c>
       <c r="D203" s="49" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="E203" s="49"/>
       <c r="F203" s="50" t="s">
@@ -8912,15 +9158,15 @@
       </c>
       <c r="G203" s="51"/>
     </row>
-    <row r="204" spans="1:7" ht="60">
+    <row r="204" spans="1:7" ht="15.75">
       <c r="A204" s="47">
         <v>2</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="C204" s="49" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="D204" s="49"/>
       <c r="E204" s="49"/>
@@ -8929,32 +9175,30 @@
       </c>
       <c r="G204" s="51"/>
     </row>
-    <row r="205" spans="1:7" ht="45">
+    <row r="205" spans="1:7" ht="135">
       <c r="A205" s="47">
         <v>3</v>
       </c>
-      <c r="B205" s="48" t="s">
-        <v>205</v>
+      <c r="B205" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="C205" s="49" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
-      <c r="F205" s="50" t="s">
-        <v>30</v>
-      </c>
+      <c r="F205" s="50"/>
       <c r="G205" s="51"/>
     </row>
-    <row r="206" spans="1:7" ht="60">
+    <row r="206" spans="1:7" ht="45">
       <c r="A206" s="47">
-        <v>4</v>
-      </c>
-      <c r="B206" s="49" t="s">
-        <v>206</v>
+        <v>3</v>
+      </c>
+      <c r="B206" s="48" t="s">
+        <v>309</v>
       </c>
       <c r="C206" s="49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
@@ -8963,122 +9207,122 @@
       </c>
       <c r="G206" s="51"/>
     </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="52" t="s">
+    <row r="207" spans="1:7" ht="60">
+      <c r="A207" s="47">
+        <v>4</v>
+      </c>
+      <c r="B207" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D207" s="49"/>
+      <c r="E207" s="49"/>
+      <c r="F207" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G207" s="51"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B207" s="78"/>
-      <c r="C207" s="79"/>
-      <c r="D207" s="79"/>
-      <c r="E207" s="79"/>
-      <c r="F207" s="79"/>
-      <c r="G207" s="80"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="39" t="s">
+      <c r="B208" s="89"/>
+      <c r="C208" s="90"/>
+      <c r="D208" s="90"/>
+      <c r="E208" s="90"/>
+      <c r="F208" s="90"/>
+      <c r="G208" s="91"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B208" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="C208" s="82" t="s">
+      <c r="B209" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="D208" s="82" t="s">
+      <c r="D209" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E208" s="83" t="s">
+      <c r="E209" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F208" s="43" t="s">
+      <c r="F209" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G208" s="44" t="str">
-        <f>IF(COUNTIF(F211:F214,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F211:F214,"Fail")&gt;0,"Fail",IF(COUNTIF(F211:F214,"")=0,"Pass","Not Executed")))</f>
+      <c r="G209" s="44" t="str">
+        <f>IF(COUNTIF(F212:F215,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F212:F215,"Fail")&gt;0,"Fail",IF(COUNTIF(F212:F215,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A209" s="45" t="s">
+    <row r="210" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A210" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B209" s="84" t="s">
+      <c r="B210" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C209" s="85"/>
-      <c r="D209" s="85"/>
-      <c r="E209" s="85"/>
-      <c r="F209" s="85"/>
-      <c r="G209" s="86"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="46" t="s">
+      <c r="C210" s="93"/>
+      <c r="D210" s="93"/>
+      <c r="E210" s="93"/>
+      <c r="F210" s="93"/>
+      <c r="G210" s="94"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="46" t="s">
+      <c r="B211" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C210" s="46" t="s">
+      <c r="C211" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D210" s="46" t="s">
+      <c r="D211" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E210" s="46" t="s">
+      <c r="E211" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F210" s="46" t="s">
+      <c r="F211" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G210" s="46" t="s">
+      <c r="G211" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="150">
-      <c r="A211" s="47">
+    <row r="212" spans="1:7" ht="150">
+      <c r="A212" s="47">
         <v>1</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="B212" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C211" s="49" t="s">
+      <c r="C212" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D211" s="49" t="s">
+      <c r="D212" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="E211" s="49"/>
-      <c r="F211" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G211" s="51"/>
-    </row>
-    <row r="212" spans="1:7" ht="60">
-      <c r="A212" s="47">
-        <v>2</v>
-      </c>
-      <c r="B212" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C212" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D212" s="49"/>
       <c r="E212" s="49"/>
       <c r="F212" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G212" s="51"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="60">
       <c r="A213" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="C213" s="49" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
@@ -9087,15 +9331,15 @@
       </c>
       <c r="G213" s="51"/>
     </row>
-    <row r="214" spans="1:7" ht="60">
+    <row r="214" spans="1:7" ht="45">
       <c r="A214" s="47">
-        <v>4</v>
-      </c>
-      <c r="B214" s="49" t="s">
-        <v>206</v>
+        <v>3</v>
+      </c>
+      <c r="B214" s="48" t="s">
+        <v>209</v>
       </c>
       <c r="C214" s="49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
@@ -9104,122 +9348,122 @@
       </c>
       <c r="G214" s="51"/>
     </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="52" t="s">
+    <row r="215" spans="1:7" ht="60">
+      <c r="A215" s="47">
+        <v>4</v>
+      </c>
+      <c r="B215" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" s="49"/>
+      <c r="E215" s="49"/>
+      <c r="F215" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G215" s="51"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B215" s="78"/>
-      <c r="C215" s="79"/>
-      <c r="D215" s="79"/>
-      <c r="E215" s="79"/>
-      <c r="F215" s="79"/>
-      <c r="G215" s="80"/>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B216" s="81" t="s">
+      <c r="B216" s="89"/>
+      <c r="C216" s="90"/>
+      <c r="D216" s="90"/>
+      <c r="E216" s="90"/>
+      <c r="F216" s="90"/>
+      <c r="G216" s="91"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B217" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="C216" s="82" t="s">
+      <c r="C217" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D216" s="82" t="s">
+      <c r="D217" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E216" s="83" t="s">
+      <c r="E217" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="F216" s="43" t="s">
+      <c r="F217" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G216" s="44" t="str">
-        <f>IF(COUNTIF(F219:F222,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F219:F222,"Fail")&gt;0,"Fail",IF(COUNTIF(F219:F222,"")=0,"Pass","Not Executed")))</f>
+      <c r="G217" s="44" t="str">
+        <f>IF(COUNTIF(F220:F223,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F220:F223,"Fail")&gt;0,"Fail",IF(COUNTIF(F220:F223,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A217" s="45" t="s">
+    <row r="218" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A218" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B217" s="84" t="s">
+      <c r="B218" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C217" s="85"/>
-      <c r="D217" s="85"/>
-      <c r="E217" s="85"/>
-      <c r="F217" s="85"/>
-      <c r="G217" s="86"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="46" t="s">
+      <c r="C218" s="93"/>
+      <c r="D218" s="93"/>
+      <c r="E218" s="93"/>
+      <c r="F218" s="93"/>
+      <c r="G218" s="94"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B218" s="46" t="s">
+      <c r="B219" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C218" s="46" t="s">
+      <c r="C219" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D218" s="46" t="s">
+      <c r="D219" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E218" s="46" t="s">
+      <c r="E219" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F218" s="46" t="s">
+      <c r="F219" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G218" s="46" t="s">
+      <c r="G219" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="150">
-      <c r="A219" s="47">
+    <row r="220" spans="1:7" ht="150">
+      <c r="A220" s="47">
         <v>1</v>
       </c>
-      <c r="B219" s="48" t="s">
+      <c r="B220" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C219" s="49" t="s">
+      <c r="C220" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D219" s="49" t="s">
+      <c r="D220" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="E219" s="49"/>
-      <c r="F219" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G219" s="51"/>
-    </row>
-    <row r="220" spans="1:7" ht="60">
-      <c r="A220" s="47">
-        <v>2</v>
-      </c>
-      <c r="B220" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C220" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D220" s="49"/>
       <c r="E220" s="49"/>
       <c r="F220" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G220" s="51"/>
     </row>
-    <row r="221" spans="1:7" ht="75">
+    <row r="221" spans="1:7" ht="15.75">
       <c r="A221" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B221" s="48" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C221" s="49" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="D221" s="49"/>
       <c r="E221" s="49"/>
@@ -9228,15 +9472,15 @@
       </c>
       <c r="G221" s="51"/>
     </row>
-    <row r="222" spans="1:7" ht="60">
+    <row r="222" spans="1:7" ht="135">
       <c r="A222" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B222" s="49" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="C222" s="49" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="D222" s="49"/>
       <c r="E222" s="49"/>
@@ -9245,124 +9489,122 @@
       </c>
       <c r="G222" s="51"/>
     </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="52" t="s">
+    <row r="223" spans="1:7" ht="225">
+      <c r="A223" s="47">
+        <v>4</v>
+      </c>
+      <c r="B223" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="C223" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="D223" s="49"/>
+      <c r="E223" s="49"/>
+      <c r="F223" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G223" s="51"/>
+    </row>
+    <row r="224" spans="1:7" ht="75">
+      <c r="A224" s="47">
+        <v>5</v>
+      </c>
+      <c r="B224" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C224" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D224" s="49"/>
+      <c r="E224" s="49"/>
+      <c r="F224" s="70"/>
+      <c r="G224" s="71"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B223" s="78"/>
-      <c r="C223" s="79"/>
-      <c r="D223" s="79"/>
-      <c r="E223" s="79"/>
-      <c r="F223" s="79"/>
-      <c r="G223" s="80"/>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B224" s="81" t="s">
+      <c r="B225" s="89"/>
+      <c r="C225" s="90"/>
+      <c r="D225" s="90"/>
+      <c r="E225" s="90"/>
+      <c r="F225" s="90"/>
+      <c r="G225" s="91"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B226" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="C224" s="82" t="s">
+      <c r="C226" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="82" t="s">
+      <c r="D226" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="E224" s="83" t="s">
+      <c r="E226" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="F224" s="43" t="s">
+      <c r="F226" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G224" s="44" t="str">
-        <f>IF(COUNTIF(F227:F230,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F227:F230,"Fail")&gt;0,"Fail",IF(COUNTIF(F227:F230,"")=0,"Pass","Not Executed")))</f>
+      <c r="G226" s="44" t="str">
+        <f>IF(COUNTIF(F229:F232,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F229:F232,"Fail")&gt;0,"Fail",IF(COUNTIF(F229:F232,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A225" s="45" t="s">
+    <row r="227" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A227" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B225" s="84" t="s">
+      <c r="B227" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C225" s="85"/>
-      <c r="D225" s="85"/>
-      <c r="E225" s="85"/>
-      <c r="F225" s="85"/>
-      <c r="G225" s="86"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="46" t="s">
+      <c r="C227" s="93"/>
+      <c r="D227" s="93"/>
+      <c r="E227" s="93"/>
+      <c r="F227" s="93"/>
+      <c r="G227" s="94"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B226" s="46" t="s">
+      <c r="B228" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C226" s="46" t="s">
+      <c r="C228" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D226" s="46" t="s">
+      <c r="D228" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E226" s="46" t="s">
+      <c r="E228" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F226" s="46" t="s">
+      <c r="F228" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G226" s="46" t="s">
+      <c r="G228" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="150">
-      <c r="A227" s="47">
+    <row r="229" spans="1:7" ht="150">
+      <c r="A229" s="47">
         <v>1</v>
       </c>
-      <c r="B227" s="48" t="s">
+      <c r="B229" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C227" s="49" t="s">
+      <c r="C229" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D227" s="49" t="s">
+      <c r="D229" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="E227" s="49"/>
-      <c r="F227" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G227" s="51"/>
-    </row>
-    <row r="228" spans="1:7" ht="60">
-      <c r="A228" s="47">
-        <v>2</v>
-      </c>
-      <c r="B228" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C228" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D228" s="49"/>
-      <c r="E228" s="49"/>
-      <c r="F228" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G228" s="51"/>
-    </row>
-    <row r="229" spans="1:7" ht="75">
-      <c r="A229" s="47">
-        <v>3</v>
-      </c>
-      <c r="B229" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C229" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D229" s="49"/>
       <c r="E229" s="49"/>
       <c r="F229" s="50" t="s">
         <v>30</v>
@@ -9371,13 +9613,13 @@
     </row>
     <row r="230" spans="1:7" ht="60">
       <c r="A230" s="47">
-        <v>4</v>
-      </c>
-      <c r="B230" s="49" t="s">
-        <v>206</v>
+        <v>2</v>
+      </c>
+      <c r="B230" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="C230" s="49" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="D230" s="49"/>
       <c r="E230" s="49"/>
@@ -9386,639 +9628,639 @@
       </c>
       <c r="G230" s="51"/>
     </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="52" t="s">
+    <row r="231" spans="1:7" ht="75">
+      <c r="A231" s="47">
+        <v>3</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C231" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D231" s="49"/>
+      <c r="E231" s="49"/>
+      <c r="F231" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G231" s="51"/>
+    </row>
+    <row r="232" spans="1:7" ht="60">
+      <c r="A232" s="47">
+        <v>4</v>
+      </c>
+      <c r="B232" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C232" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D232" s="49"/>
+      <c r="E232" s="49"/>
+      <c r="F232" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G232" s="51"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B231" s="78"/>
-      <c r="C231" s="79"/>
-      <c r="D231" s="79"/>
-      <c r="E231" s="79"/>
-      <c r="F231" s="79"/>
-      <c r="G231" s="80"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B232" s="81" t="s">
+      <c r="B233" s="89"/>
+      <c r="C233" s="90"/>
+      <c r="D233" s="90"/>
+      <c r="E233" s="90"/>
+      <c r="F233" s="90"/>
+      <c r="G233" s="91"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B234" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="C232" s="82" t="s">
+      <c r="C234" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D232" s="82" t="s">
+      <c r="D234" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E232" s="83" t="s">
+      <c r="E234" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F232" s="43" t="s">
+      <c r="F234" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G232" s="44" t="str">
-        <f>IF(COUNTIF(F235:F238,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F235:F238,"Fail")&gt;0,"Fail",IF(COUNTIF(F235:F238,"")=0,"Pass","Not Executed")))</f>
+      <c r="G234" s="44" t="str">
+        <f>IF(COUNTIF(F237:F240,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F237:F240,"Fail")&gt;0,"Fail",IF(COUNTIF(F237:F240,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A233" s="45" t="s">
+    <row r="235" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A235" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B233" s="84" t="s">
+      <c r="B235" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C233" s="85"/>
-      <c r="D233" s="85"/>
-      <c r="E233" s="85"/>
-      <c r="F233" s="85"/>
-      <c r="G233" s="86"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="46" t="s">
+      <c r="C235" s="93"/>
+      <c r="D235" s="93"/>
+      <c r="E235" s="93"/>
+      <c r="F235" s="93"/>
+      <c r="G235" s="94"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B234" s="46" t="s">
+      <c r="B236" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C234" s="46" t="s">
+      <c r="C236" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D234" s="46" t="s">
+      <c r="D236" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E234" s="46" t="s">
+      <c r="E236" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F234" s="46" t="s">
+      <c r="F236" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G234" s="46" t="s">
+      <c r="G236" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="150">
-      <c r="A235" s="47">
+    <row r="237" spans="1:7" ht="150">
+      <c r="A237" s="47">
         <v>1</v>
       </c>
-      <c r="B235" s="48" t="s">
+      <c r="B237" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C235" s="49" t="s">
+      <c r="C237" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D235" s="49" t="s">
+      <c r="D237" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E235" s="49"/>
-      <c r="F235" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G235" s="51"/>
-    </row>
-    <row r="236" spans="1:7" ht="45">
-      <c r="A236" s="47">
-        <v>2</v>
-      </c>
-      <c r="B236" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C236" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D236" s="49"/>
-      <c r="E236" s="49"/>
-      <c r="F236" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G236" s="51"/>
-    </row>
-    <row r="237" spans="1:7" ht="210">
-      <c r="A237" s="47">
-        <v>3</v>
-      </c>
-      <c r="B237" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C237" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="D237" s="49"/>
       <c r="E237" s="49"/>
       <c r="F237" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G237" s="51"/>
     </row>
-    <row r="238" spans="1:7" ht="15.75">
+    <row r="238" spans="1:7" ht="45">
       <c r="A238" s="47">
-        <v>4</v>
-      </c>
-      <c r="B238" s="49" t="s">
-        <v>219</v>
+        <v>2</v>
+      </c>
+      <c r="B238" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="C238" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D238" s="49" t="s">
-        <v>221</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D238" s="49"/>
       <c r="E238" s="49"/>
       <c r="F238" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G238" s="51"/>
     </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="52" t="s">
+    <row r="239" spans="1:7" ht="210">
+      <c r="A239" s="47">
+        <v>3</v>
+      </c>
+      <c r="B239" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C239" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D239" s="49"/>
+      <c r="E239" s="49"/>
+      <c r="F239" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G239" s="51"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.75">
+      <c r="A240" s="47">
+        <v>4</v>
+      </c>
+      <c r="B240" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C240" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D240" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E240" s="49"/>
+      <c r="F240" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G240" s="51"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B239" s="78"/>
-      <c r="C239" s="79"/>
-      <c r="D239" s="79"/>
-      <c r="E239" s="79"/>
-      <c r="F239" s="79"/>
-      <c r="G239" s="80"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B240" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="C240" s="82" t="s">
+      <c r="B241" s="89"/>
+      <c r="C241" s="90"/>
+      <c r="D241" s="90"/>
+      <c r="E241" s="90"/>
+      <c r="F241" s="90"/>
+      <c r="G241" s="91"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B242" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C242" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D240" s="82" t="s">
+      <c r="D242" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E240" s="83" t="s">
+      <c r="E242" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F240" s="43" t="s">
+      <c r="F242" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G240" s="44" t="str">
-        <f>IF(COUNTIF(F243:F245,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F243:F245,"Fail")&gt;0,"Fail",IF(COUNTIF(F243:F245,"")=0,"Pass","Not Executed")))</f>
+      <c r="G242" s="44" t="str">
+        <f>IF(COUNTIF(F245:F247,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F245:F247,"Fail")&gt;0,"Fail",IF(COUNTIF(F245:F247,"")=0,"Pass","Not Executed")))</f>
         <v>Fail</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A241" s="45" t="s">
+    <row r="243" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A243" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B241" s="84" t="s">
+      <c r="B243" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C241" s="85"/>
-      <c r="D241" s="85"/>
-      <c r="E241" s="85"/>
-      <c r="F241" s="85"/>
-      <c r="G241" s="86"/>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="46" t="s">
+      <c r="C243" s="93"/>
+      <c r="D243" s="93"/>
+      <c r="E243" s="93"/>
+      <c r="F243" s="93"/>
+      <c r="G243" s="94"/>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B242" s="46" t="s">
+      <c r="B244" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C242" s="46" t="s">
+      <c r="C244" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D242" s="46" t="s">
+      <c r="D244" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E242" s="46" t="s">
+      <c r="E244" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F242" s="46" t="s">
+      <c r="F244" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G242" s="46" t="s">
+      <c r="G244" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="150">
-      <c r="A243" s="47">
+    <row r="245" spans="1:7" ht="150">
+      <c r="A245" s="47">
         <v>1</v>
       </c>
-      <c r="B243" s="48" t="s">
+      <c r="B245" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C243" s="49" t="s">
+      <c r="C245" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D243" s="49" t="s">
+      <c r="D245" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E243" s="49"/>
-      <c r="F243" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G243" s="51"/>
-    </row>
-    <row r="244" spans="1:7" ht="45">
-      <c r="A244" s="47">
-        <v>2</v>
-      </c>
-      <c r="B244" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C244" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="D244" s="49"/>
-      <c r="E244" s="49"/>
-      <c r="F244" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G244" s="51"/>
-    </row>
-    <row r="245" spans="1:7" ht="30">
-      <c r="A245" s="47">
-        <v>3</v>
-      </c>
-      <c r="B245" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="C245" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D245" s="49"/>
       <c r="E245" s="49"/>
       <c r="F245" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G245" s="51"/>
+    </row>
+    <row r="246" spans="1:7" ht="45">
+      <c r="A246" s="47">
+        <v>2</v>
+      </c>
+      <c r="B246" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C246" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D246" s="49"/>
+      <c r="E246" s="49"/>
+      <c r="F246" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G246" s="51"/>
+    </row>
+    <row r="247" spans="1:7" ht="30">
+      <c r="A247" s="47">
+        <v>3</v>
+      </c>
+      <c r="B247" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C247" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D247" s="49"/>
+      <c r="E247" s="49"/>
+      <c r="F247" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G245" s="51"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="52" t="s">
+      <c r="G247" s="51"/>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B246" s="78"/>
-      <c r="C246" s="79"/>
-      <c r="D246" s="79"/>
-      <c r="E246" s="79"/>
-      <c r="F246" s="79"/>
-      <c r="G246" s="80"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B247" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="C247" s="82" t="s">
+      <c r="B248" s="89"/>
+      <c r="C248" s="90"/>
+      <c r="D248" s="90"/>
+      <c r="E248" s="90"/>
+      <c r="F248" s="90"/>
+      <c r="G248" s="91"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B249" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="C249" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D247" s="82" t="s">
+      <c r="D249" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E247" s="83" t="s">
+      <c r="E249" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F247" s="43" t="s">
+      <c r="F249" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G247" s="44" t="str">
-        <f>IF(COUNTIF(F250:F252,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F250:F252,"Fail")&gt;0,"Fail",IF(COUNTIF(F250:F252,"")=0,"Pass","Not Executed")))</f>
+      <c r="G249" s="44" t="str">
+        <f>IF(COUNTIF(F252:F254,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F252:F254,"Fail")&gt;0,"Fail",IF(COUNTIF(F252:F254,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A248" s="45" t="s">
+    <row r="250" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A250" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B248" s="84" t="s">
+      <c r="B250" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C248" s="85"/>
-      <c r="D248" s="85"/>
-      <c r="E248" s="85"/>
-      <c r="F248" s="85"/>
-      <c r="G248" s="86"/>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="46" t="s">
+      <c r="C250" s="93"/>
+      <c r="D250" s="93"/>
+      <c r="E250" s="93"/>
+      <c r="F250" s="93"/>
+      <c r="G250" s="94"/>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B249" s="46" t="s">
+      <c r="B251" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C249" s="46" t="s">
+      <c r="C251" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D249" s="46" t="s">
+      <c r="D251" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E249" s="46" t="s">
+      <c r="E251" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F249" s="46" t="s">
+      <c r="F251" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G249" s="46" t="s">
+      <c r="G251" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="150">
-      <c r="A250" s="47">
+    <row r="252" spans="1:7" ht="150">
+      <c r="A252" s="47">
         <v>1</v>
       </c>
-      <c r="B250" s="48" t="s">
+      <c r="B252" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C250" s="49" t="s">
+      <c r="C252" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D250" s="49" t="s">
+      <c r="D252" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E250" s="49"/>
-      <c r="F250" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G250" s="51"/>
-    </row>
-    <row r="251" spans="1:7" ht="15.75">
-      <c r="A251" s="47">
-        <v>2</v>
-      </c>
-      <c r="B251" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C251" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="D251" s="49"/>
-      <c r="E251" s="49"/>
-      <c r="F251" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G251" s="51"/>
-    </row>
-    <row r="252" spans="1:7" ht="30">
-      <c r="A252" s="47">
-        <v>3</v>
-      </c>
-      <c r="B252" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C252" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="D252" s="49"/>
       <c r="E252" s="49"/>
       <c r="F252" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G252" s="51"/>
     </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="52" t="s">
+    <row r="253" spans="1:7" ht="15.75">
+      <c r="A253" s="47">
+        <v>2</v>
+      </c>
+      <c r="B253" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C253" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D253" s="49"/>
+      <c r="E253" s="49"/>
+      <c r="F253" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G253" s="51"/>
+    </row>
+    <row r="254" spans="1:7" ht="30">
+      <c r="A254" s="47">
+        <v>3</v>
+      </c>
+      <c r="B254" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C254" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D254" s="49"/>
+      <c r="E254" s="49"/>
+      <c r="F254" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G254" s="51"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B253" s="78"/>
-      <c r="C253" s="79"/>
-      <c r="D253" s="79"/>
-      <c r="E253" s="79"/>
-      <c r="F253" s="79"/>
-      <c r="G253" s="80"/>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="B254" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="C254" s="82" t="s">
+      <c r="B255" s="89"/>
+      <c r="C255" s="90"/>
+      <c r="D255" s="90"/>
+      <c r="E255" s="90"/>
+      <c r="F255" s="90"/>
+      <c r="G255" s="91"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="C256" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D254" s="82" t="s">
+      <c r="D256" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E254" s="83" t="s">
+      <c r="E256" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F254" s="43" t="s">
+      <c r="F256" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G254" s="44" t="str">
-        <f>IF(COUNTIF(F257:F259,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F257:F259,"Fail")&gt;0,"Fail",IF(COUNTIF(F257:F259,"")=0,"Pass","Not Executed")))</f>
+      <c r="G256" s="44" t="str">
+        <f>IF(COUNTIF(F259:F261,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F259:F261,"Fail")&gt;0,"Fail",IF(COUNTIF(F259:F261,"")=0,"Pass","Not Executed")))</f>
         <v>Pass</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A255" s="45" t="s">
+    <row r="257" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A257" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B255" s="84" t="s">
+      <c r="B257" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C255" s="85"/>
-      <c r="D255" s="85"/>
-      <c r="E255" s="85"/>
-      <c r="F255" s="85"/>
-      <c r="G255" s="86"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="46" t="s">
+      <c r="C257" s="93"/>
+      <c r="D257" s="93"/>
+      <c r="E257" s="93"/>
+      <c r="F257" s="93"/>
+      <c r="G257" s="94"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B256" s="46" t="s">
+      <c r="B258" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C256" s="46" t="s">
+      <c r="C258" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D256" s="46" t="s">
+      <c r="D258" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E256" s="46" t="s">
+      <c r="E258" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F256" s="46" t="s">
+      <c r="F258" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G256" s="46" t="s">
+      <c r="G258" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="150">
-      <c r="A257" s="47">
+    <row r="259" spans="1:7" ht="150">
+      <c r="A259" s="47">
         <v>1</v>
       </c>
-      <c r="B257" s="48" t="s">
+      <c r="B259" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C257" s="49" t="s">
+      <c r="C259" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D257" s="49" t="s">
+      <c r="D259" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E257" s="49"/>
-      <c r="F257" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G257" s="51"/>
-    </row>
-    <row r="258" spans="1:7" ht="15.75">
-      <c r="A258" s="47">
-        <v>2</v>
-      </c>
-      <c r="B258" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C258" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="D258" s="49"/>
-      <c r="E258" s="49"/>
-      <c r="F258" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G258" s="51"/>
-    </row>
-    <row r="259" spans="1:7" ht="30">
-      <c r="A259" s="47">
-        <v>3</v>
-      </c>
-      <c r="B259" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="C259" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="D259" s="49"/>
       <c r="E259" s="49"/>
       <c r="F259" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G259" s="51"/>
     </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="52" t="s">
+    <row r="260" spans="1:7" ht="15.75">
+      <c r="A260" s="47">
+        <v>2</v>
+      </c>
+      <c r="B260" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C260" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D260" s="49"/>
+      <c r="E260" s="49"/>
+      <c r="F260" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G260" s="51"/>
+    </row>
+    <row r="261" spans="1:7" ht="30">
+      <c r="A261" s="47">
+        <v>3</v>
+      </c>
+      <c r="B261" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C261" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="D261" s="49"/>
+      <c r="E261" s="49"/>
+      <c r="F261" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G261" s="51"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B260" s="78"/>
-      <c r="C260" s="79"/>
-      <c r="D260" s="79"/>
-      <c r="E260" s="79"/>
-      <c r="F260" s="79"/>
-      <c r="G260" s="80"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="B261" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="C261" s="82" t="s">
+      <c r="B262" s="89"/>
+      <c r="C262" s="90"/>
+      <c r="D262" s="90"/>
+      <c r="E262" s="90"/>
+      <c r="F262" s="90"/>
+      <c r="G262" s="91"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B263" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C263" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D261" s="82" t="s">
+      <c r="D263" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E261" s="83" t="s">
+      <c r="E263" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="F261" s="43" t="s">
+      <c r="F263" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G261" s="44" t="str">
-        <f>IF(COUNTIF(F264:F271,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F264:F271,"Fail")&gt;0,"Fail",IF(COUNTIF(F264:F271,"")=0,"Pass","Not Executed")))</f>
+      <c r="G263" s="44" t="str">
+        <f>IF(COUNTIF(F266:F273,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F266:F273,"Fail")&gt;0,"Fail",IF(COUNTIF(F266:F273,"")=0,"Pass","Not Executed")))</f>
         <v>Not Executed</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A262" s="45" t="s">
+    <row r="264" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A264" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B262" s="84" t="s">
+      <c r="B264" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="C262" s="85"/>
-      <c r="D262" s="85"/>
-      <c r="E262" s="85"/>
-      <c r="F262" s="85"/>
-      <c r="G262" s="86"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="46" t="s">
+      <c r="C264" s="93"/>
+      <c r="D264" s="93"/>
+      <c r="E264" s="93"/>
+      <c r="F264" s="93"/>
+      <c r="G264" s="94"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B263" s="46" t="s">
+      <c r="B265" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C263" s="46" t="s">
+      <c r="C265" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D263" s="46" t="s">
+      <c r="D265" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E263" s="46" t="s">
+      <c r="E265" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F263" s="46" t="s">
+      <c r="F265" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G263" s="46" t="s">
+      <c r="G265" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="150">
-      <c r="A264" s="47">
+    <row r="266" spans="1:7" ht="150">
+      <c r="A266" s="47">
         <v>1</v>
       </c>
-      <c r="B264" s="48" t="s">
+      <c r="B266" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C264" s="49" t="s">
+      <c r="C266" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D264" s="49" t="s">
+      <c r="D266" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E264" s="49"/>
-      <c r="F264" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G264" s="51"/>
-    </row>
-    <row r="265" spans="1:7" ht="15.75">
-      <c r="A265" s="47">
-        <v>2</v>
-      </c>
-      <c r="B265" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C265" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="D265" s="49"/>
-      <c r="E265" s="49"/>
-      <c r="F265" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G265" s="51"/>
-    </row>
-    <row r="266" spans="1:7" ht="30">
-      <c r="A266" s="47">
-        <v>3</v>
-      </c>
-      <c r="B266" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="C266" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="D266" s="49"/>
       <c r="E266" s="49"/>
       <c r="F266" s="50" t="s">
         <v>30</v>
@@ -10027,17 +10269,15 @@
     </row>
     <row r="267" spans="1:7" ht="15.75">
       <c r="A267" s="47">
-        <v>4</v>
-      </c>
-      <c r="B267" s="49" t="s">
-        <v>281</v>
+        <v>2</v>
+      </c>
+      <c r="B267" s="48" t="s">
+        <v>253</v>
       </c>
       <c r="C267" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="D267" s="49" t="s">
-        <v>282</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D267" s="49"/>
       <c r="E267" s="49"/>
       <c r="F267" s="50" t="s">
         <v>30</v>
@@ -10046,13 +10286,13 @@
     </row>
     <row r="268" spans="1:7" ht="30">
       <c r="A268" s="47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B268" s="49" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C268" s="49" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D268" s="49"/>
       <c r="E268" s="49"/>
@@ -10063,30 +10303,32 @@
     </row>
     <row r="269" spans="1:7" ht="15.75">
       <c r="A269" s="47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B269" s="49" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C269" s="49" t="s">
-        <v>285</v>
-      </c>
-      <c r="D269" s="49"/>
+        <v>280</v>
+      </c>
+      <c r="D269" s="49" t="s">
+        <v>279</v>
+      </c>
       <c r="E269" s="49"/>
       <c r="F269" s="50" t="s">
         <v>30</v>
       </c>
       <c r="G269" s="51"/>
     </row>
-    <row r="270" spans="1:7" ht="15.75">
+    <row r="270" spans="1:7" ht="30">
       <c r="A270" s="47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B270" s="49" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C270" s="49" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D270" s="49"/>
       <c r="E270" s="49"/>
@@ -10095,571 +10337,1091 @@
       </c>
       <c r="G270" s="51"/>
     </row>
-    <row r="271" spans="1:7" ht="135">
+    <row r="271" spans="1:7" ht="15.75">
       <c r="A271" s="47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B271" s="49" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C271" s="49" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D271" s="49"/>
       <c r="E271" s="49"/>
-      <c r="F271" s="50"/>
+      <c r="F271" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="G271" s="51"/>
     </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="52" t="s">
+    <row r="272" spans="1:7" ht="15.75">
+      <c r="A272" s="47">
+        <v>7</v>
+      </c>
+      <c r="B272" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C272" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D272" s="49"/>
+      <c r="E272" s="49"/>
+      <c r="F272" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G272" s="51"/>
+    </row>
+    <row r="273" spans="1:7" ht="135">
+      <c r="A273" s="47">
+        <v>8</v>
+      </c>
+      <c r="B273" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C273" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D273" s="49"/>
+      <c r="E273" s="49"/>
+      <c r="F273" s="50"/>
+      <c r="G273" s="51"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B272" s="78"/>
-      <c r="C272" s="79"/>
-      <c r="D272" s="79"/>
-      <c r="E272" s="79"/>
-      <c r="F272" s="79"/>
-      <c r="G272" s="80"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
+      <c r="B274" s="89"/>
+      <c r="C274" s="90"/>
+      <c r="D274" s="90"/>
+      <c r="E274" s="90"/>
+      <c r="F274" s="90"/>
+      <c r="G274" s="91"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
+      <c r="A275" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B275" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C275" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D275" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E275" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F275" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G275" s="44" t="str">
+        <f>IF(COUNTIF(F278:F280,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F278:F280,"Fail")&gt;0,"Fail",IF(COUNTIF(F278:F280,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="24" customHeight="1">
+      <c r="A276" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B276" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C276" s="87"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="87"/>
+      <c r="F276" s="87"/>
+      <c r="G276" s="88"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
+      <c r="A277" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B277" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E277" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F277" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G277" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="150">
+      <c r="A278" s="47">
+        <v>1</v>
+      </c>
+      <c r="B278" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D278" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E278" s="49"/>
+      <c r="F278" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G278" s="51"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.75">
+      <c r="A279" s="47">
+        <v>2</v>
+      </c>
+      <c r="B279" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D279" s="49"/>
+      <c r="E279" s="49"/>
+      <c r="F279" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G279" s="51"/>
+    </row>
+    <row r="280" spans="1:7" ht="135">
+      <c r="A280" s="47">
+        <v>3</v>
+      </c>
+      <c r="B280" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C280" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D280" s="49"/>
+      <c r="E280" s="49"/>
+      <c r="F280" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G280" s="51"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="8"/>
+      <c r="A281" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B281" s="89"/>
+      <c r="C281" s="90"/>
+      <c r="D281" s="90"/>
+      <c r="E281" s="90"/>
+      <c r="F281" s="90"/>
+      <c r="G281" s="91"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8"/>
+      <c r="A282" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B282" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C282" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D282" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E282" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F282" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G282" s="44" t="str">
+        <f>IF(COUNTIF(F285:F289,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F285:F289,"Fail")&gt;0,"Fail",IF(COUNTIF(F285:F289,"")=0,"Pass","Not Executed")))</f>
+        <v>Not Executed</v>
+      </c>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
+      <c r="A283" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B283" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C283" s="87"/>
+      <c r="D283" s="87"/>
+      <c r="E283" s="87"/>
+      <c r="F283" s="87"/>
+      <c r="G283" s="88"/>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="8"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="8"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
-      <c r="G289" s="8"/>
+      <c r="A284" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B284" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D284" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E284" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F284" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G284" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="150">
+      <c r="A285" s="47">
+        <v>1</v>
+      </c>
+      <c r="B285" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C285" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D285" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E285" s="49"/>
+      <c r="F285" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G285" s="51"/>
+    </row>
+    <row r="286" spans="1:7" ht="15.75">
+      <c r="A286" s="47">
+        <v>2</v>
+      </c>
+      <c r="B286" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C286" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D286" s="49"/>
+      <c r="E286" s="49"/>
+      <c r="F286" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G286" s="51"/>
+    </row>
+    <row r="287" spans="1:7" ht="135">
+      <c r="A287" s="47">
+        <v>3</v>
+      </c>
+      <c r="B287" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C287" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D287" s="49"/>
+      <c r="E287" s="49"/>
+      <c r="F287" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G287" s="51"/>
+    </row>
+    <row r="288" spans="1:7" ht="225">
+      <c r="A288" s="47">
+        <v>4</v>
+      </c>
+      <c r="B288" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C288" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D288" s="49"/>
+      <c r="E288" s="49"/>
+      <c r="F288" s="47"/>
+      <c r="G288" s="49"/>
+    </row>
+    <row r="289" spans="1:7" ht="75">
+      <c r="A289" s="47">
+        <v>5</v>
+      </c>
+      <c r="B289" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C289" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D289" s="49"/>
+      <c r="E289" s="49"/>
+      <c r="F289" s="47"/>
+      <c r="G289" s="49"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-      <c r="G290" s="8"/>
+      <c r="A290" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B290" s="89"/>
+      <c r="C290" s="90"/>
+      <c r="D290" s="90"/>
+      <c r="E290" s="90"/>
+      <c r="F290" s="90"/>
+      <c r="G290" s="91"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
-      <c r="G291" s="8"/>
+      <c r="A291" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="B291" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="C291" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D291" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E291" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F291" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G291" s="44" t="str">
+        <f>IF(COUNTIF(F294:F296,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F294:F296,"Fail")&gt;0,"Fail",IF(COUNTIF(F294:F296,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-      <c r="G292" s="8"/>
+      <c r="A292" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B292" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C292" s="87"/>
+      <c r="D292" s="87"/>
+      <c r="E292" s="87"/>
+      <c r="F292" s="87"/>
+      <c r="G292" s="88"/>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
-      <c r="G293" s="8"/>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-      <c r="G294" s="8"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="8"/>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
-      <c r="G295" s="8"/>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
-      <c r="G296" s="8"/>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="8"/>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="8"/>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
-      <c r="G298" s="8"/>
+      <c r="A293" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B293" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C293" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D293" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E293" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F293" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G293" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="150">
+      <c r="A294" s="47">
+        <v>1</v>
+      </c>
+      <c r="B294" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C294" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D294" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E294" s="49"/>
+      <c r="F294" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G294" s="51"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75">
+      <c r="A295" s="47">
+        <v>2</v>
+      </c>
+      <c r="B295" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C295" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D295" s="49"/>
+      <c r="E295" s="49"/>
+      <c r="F295" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G295" s="51"/>
+    </row>
+    <row r="296" spans="1:7" ht="135">
+      <c r="A296" s="47">
+        <v>3</v>
+      </c>
+      <c r="B296" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C296" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D296" s="49"/>
+      <c r="E296" s="49"/>
+      <c r="F296" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G296" s="51"/>
+    </row>
+    <row r="297" spans="1:7" ht="225">
+      <c r="A297" s="47">
+        <v>4</v>
+      </c>
+      <c r="B297" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="C297" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="D297" s="49"/>
+      <c r="E297" s="49"/>
+      <c r="F297" s="47"/>
+      <c r="G297" s="49"/>
+    </row>
+    <row r="298" spans="1:7" ht="75">
+      <c r="A298" s="47">
+        <v>5</v>
+      </c>
+      <c r="B298" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C298" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D298" s="49"/>
+      <c r="E298" s="49"/>
+      <c r="F298" s="47"/>
+      <c r="G298" s="49"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="8"/>
+      <c r="A299" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B299" s="89"/>
+      <c r="C299" s="90"/>
+      <c r="D299" s="90"/>
+      <c r="E299" s="90"/>
+      <c r="F299" s="90"/>
+      <c r="G299" s="91"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="8"/>
-      <c r="B300" s="8"/>
-      <c r="C300" s="8"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
-      <c r="G300" s="8"/>
+      <c r="A300" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B300" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C300" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D300" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E300" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F300" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G300" s="44" t="str">
+        <f>IF(COUNTIF(F303:F305,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F303:F305,"Fail")&gt;0,"Fail",IF(COUNTIF(F303:F305,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="8"/>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
-      <c r="G301" s="8"/>
+      <c r="A301" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B301" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C301" s="87"/>
+      <c r="D301" s="87"/>
+      <c r="E301" s="87"/>
+      <c r="F301" s="87"/>
+      <c r="G301" s="88"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="8"/>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="8"/>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8"/>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="8"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="8"/>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
-      <c r="G305" s="8"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
-      <c r="C306" s="8"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
-      <c r="G306" s="8"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="8"/>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
-      <c r="G307" s="8"/>
+      <c r="A302" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B302" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C302" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D302" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E302" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G302" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="150">
+      <c r="A303" s="47">
+        <v>1</v>
+      </c>
+      <c r="B303" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C303" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D303" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E303" s="49"/>
+      <c r="F303" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G303" s="51"/>
+    </row>
+    <row r="304" spans="1:7" ht="15.75">
+      <c r="A304" s="47">
+        <v>2</v>
+      </c>
+      <c r="B304" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C304" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D304" s="49"/>
+      <c r="E304" s="49"/>
+      <c r="F304" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G304" s="51"/>
+    </row>
+    <row r="305" spans="1:7" ht="135">
+      <c r="A305" s="47">
+        <v>3</v>
+      </c>
+      <c r="B305" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C305" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D305" s="49"/>
+      <c r="E305" s="49"/>
+      <c r="F305" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G305" s="51"/>
+    </row>
+    <row r="306" spans="1:7" ht="90">
+      <c r="A306" s="47">
+        <v>4</v>
+      </c>
+      <c r="B306" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C306" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="D306" s="49"/>
+      <c r="E306" s="49"/>
+      <c r="F306" s="47"/>
+      <c r="G306" s="49"/>
+    </row>
+    <row r="307" spans="1:7" ht="75">
+      <c r="A307" s="47">
+        <v>5</v>
+      </c>
+      <c r="B307" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C307" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D307" s="49"/>
+      <c r="E307" s="49"/>
+      <c r="F307" s="47"/>
+      <c r="G307" s="49"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
-      <c r="C308" s="8"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
+      <c r="A308" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B308" s="89"/>
+      <c r="C308" s="90"/>
+      <c r="D308" s="90"/>
+      <c r="E308" s="90"/>
+      <c r="F308" s="90"/>
+      <c r="G308" s="91"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="8"/>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
+      <c r="A309" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="C309" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D309" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E309" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F309" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G309" s="44" t="str">
+        <f>IF(COUNTIF(F312:F314,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F312:F314,"Fail")&gt;0,"Fail",IF(COUNTIF(F312:F314,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
+      <c r="A310" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B310" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C310" s="87"/>
+      <c r="D310" s="87"/>
+      <c r="E310" s="87"/>
+      <c r="F310" s="87"/>
+      <c r="G310" s="88"/>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="8"/>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="8"/>
-      <c r="B312" s="8"/>
-      <c r="C312" s="8"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
-      <c r="G312" s="8"/>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="8"/>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
-      <c r="G313" s="8"/>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
-      <c r="C314" s="8"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
-      <c r="G314" s="8"/>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="8"/>
-      <c r="B315" s="8"/>
-      <c r="C315" s="8"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
-      <c r="G315" s="8"/>
+      <c r="A311" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B311" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C311" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D311" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E311" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F311" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G311" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="150">
+      <c r="A312" s="47">
+        <v>1</v>
+      </c>
+      <c r="B312" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C312" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D312" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E312" s="49"/>
+      <c r="F312" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312" s="51"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.75">
+      <c r="A313" s="47">
+        <v>2</v>
+      </c>
+      <c r="B313" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C313" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" s="49"/>
+      <c r="E313" s="49"/>
+      <c r="F313" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G313" s="51"/>
+    </row>
+    <row r="314" spans="1:7" ht="45">
+      <c r="A314" s="47">
+        <v>3</v>
+      </c>
+      <c r="B314" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C314" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D314" s="49"/>
+      <c r="E314" s="49"/>
+      <c r="F314" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G314" s="51"/>
+    </row>
+    <row r="315" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A315" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B315" s="89"/>
+      <c r="C315" s="90"/>
+      <c r="D315" s="90"/>
+      <c r="E315" s="90"/>
+      <c r="F315" s="90"/>
+      <c r="G315" s="91"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="8"/>
-      <c r="B316" s="8"/>
-      <c r="C316" s="8"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
-      <c r="G316" s="8"/>
+      <c r="A316" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C316" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D316" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E316" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F316" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G316" s="44" t="str">
+        <f>IF(COUNTIF(F319:F323,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F319:F323,"Fail")&gt;0,"Fail",IF(COUNTIF(F319:F323,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="8"/>
-      <c r="B317" s="8"/>
-      <c r="C317" s="8"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
-      <c r="F317" s="8"/>
-      <c r="G317" s="8"/>
+      <c r="A317" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B317" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C317" s="87"/>
+      <c r="D317" s="87"/>
+      <c r="E317" s="87"/>
+      <c r="F317" s="87"/>
+      <c r="G317" s="88"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="8"/>
-      <c r="B318" s="8"/>
-      <c r="C318" s="8"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
-      <c r="G318" s="8"/>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="8"/>
-      <c r="B319" s="8"/>
-      <c r="C319" s="8"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
-      <c r="G319" s="8"/>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="A320" s="8"/>
-      <c r="B320" s="8"/>
-      <c r="C320" s="8"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
-      <c r="G320" s="8"/>
-    </row>
-    <row r="321" spans="1:7">
-      <c r="A321" s="8"/>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
-      <c r="G321" s="8"/>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
-      <c r="G322" s="8"/>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="8"/>
-      <c r="B323" s="8"/>
-      <c r="C323" s="8"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
-      <c r="G323" s="8"/>
-    </row>
-    <row r="324" spans="1:7">
-      <c r="A324" s="8"/>
-      <c r="B324" s="8"/>
-      <c r="C324" s="8"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
-      <c r="G324" s="8"/>
+      <c r="A318" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B318" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C318" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D318" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E318" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F318" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G318" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="150">
+      <c r="A319" s="47">
+        <v>1</v>
+      </c>
+      <c r="B319" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C319" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D319" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E319" s="49"/>
+      <c r="F319" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G319" s="51"/>
+    </row>
+    <row r="320" spans="1:7" ht="15.75">
+      <c r="A320" s="47">
+        <v>2</v>
+      </c>
+      <c r="B320" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C320" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D320" s="49"/>
+      <c r="E320" s="49"/>
+      <c r="F320" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G320" s="51"/>
+    </row>
+    <row r="321" spans="1:7" ht="15.75">
+      <c r="A321" s="47">
+        <v>3</v>
+      </c>
+      <c r="B321" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="C321" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="D321" s="49"/>
+      <c r="E321" s="49"/>
+      <c r="F321" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G321" s="51"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.75">
+      <c r="A322" s="47">
+        <v>4</v>
+      </c>
+      <c r="B322" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="C322" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D322" s="49"/>
+      <c r="E322" s="49"/>
+      <c r="F322" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G322" s="51"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.75">
+      <c r="A323" s="47">
+        <v>5</v>
+      </c>
+      <c r="B323" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C323" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D323" s="49"/>
+      <c r="E323" s="49"/>
+      <c r="F323" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G323" s="51"/>
+    </row>
+    <row r="324" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A324" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B324" s="89"/>
+      <c r="C324" s="90"/>
+      <c r="D324" s="90"/>
+      <c r="E324" s="90"/>
+      <c r="F324" s="90"/>
+      <c r="G324" s="91"/>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="8"/>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
-      <c r="G325" s="8"/>
+      <c r="A325" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B325" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="C325" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D325" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="E325" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="F325" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G325" s="44" t="str">
+        <f>IF(COUNTIF(F328:F332,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F328:F332,"Fail")&gt;0,"Fail",IF(COUNTIF(F328:F332,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="8"/>
-      <c r="B326" s="8"/>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
-      <c r="G326" s="8"/>
+      <c r="A326" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B326" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C326" s="87"/>
+      <c r="D326" s="87"/>
+      <c r="E326" s="87"/>
+      <c r="F326" s="87"/>
+      <c r="G326" s="88"/>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="8"/>
-      <c r="B327" s="8"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
-      <c r="F327" s="8"/>
-      <c r="G327" s="8"/>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" s="8"/>
-      <c r="B328" s="8"/>
-      <c r="C328" s="8"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
-      <c r="F328" s="8"/>
-      <c r="G328" s="8"/>
-    </row>
-    <row r="329" spans="1:7">
-      <c r="A329" s="8"/>
-      <c r="B329" s="8"/>
-      <c r="C329" s="8"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="8"/>
-      <c r="F329" s="8"/>
-      <c r="G329" s="8"/>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="8"/>
-      <c r="B330" s="8"/>
-      <c r="C330" s="8"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="8"/>
-      <c r="F330" s="8"/>
-      <c r="G330" s="8"/>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" s="8"/>
-      <c r="B331" s="8"/>
-      <c r="C331" s="8"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
-      <c r="G331" s="8"/>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332" s="8"/>
-      <c r="B332" s="8"/>
-      <c r="C332" s="8"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
-      <c r="G332" s="8"/>
-    </row>
-    <row r="333" spans="1:7">
-      <c r="A333" s="8"/>
-      <c r="B333" s="8"/>
-      <c r="C333" s="8"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="8"/>
-      <c r="F333" s="8"/>
-      <c r="G333" s="8"/>
+      <c r="A327" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B327" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C327" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D327" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E327" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F327" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G327" s="46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="150">
+      <c r="A328" s="47">
+        <v>1</v>
+      </c>
+      <c r="B328" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C328" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D328" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E328" s="49"/>
+      <c r="F328" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G328" s="51"/>
+    </row>
+    <row r="329" spans="1:7" ht="15.75">
+      <c r="A329" s="47">
+        <v>2</v>
+      </c>
+      <c r="B329" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C329" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="D329" s="49"/>
+      <c r="E329" s="49"/>
+      <c r="F329" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G329" s="51"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.75">
+      <c r="A330" s="47">
+        <v>3</v>
+      </c>
+      <c r="B330" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="C330" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="D330" s="49"/>
+      <c r="E330" s="49"/>
+      <c r="F330" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G330" s="51"/>
+    </row>
+    <row r="331" spans="1:7" ht="15.75">
+      <c r="A331" s="47">
+        <v>4</v>
+      </c>
+      <c r="B331" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="C331" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D331" s="49"/>
+      <c r="E331" s="49"/>
+      <c r="F331" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G331" s="51"/>
+    </row>
+    <row r="332" spans="1:7" ht="15.75">
+      <c r="A332" s="47">
+        <v>5</v>
+      </c>
+      <c r="B332" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C332" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="D332" s="49"/>
+      <c r="E332" s="49"/>
+      <c r="F332" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G332" s="51"/>
+    </row>
+    <row r="333" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A333" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B333" s="89"/>
+      <c r="C333" s="90"/>
+      <c r="D333" s="90"/>
+      <c r="E333" s="90"/>
+      <c r="F333" s="90"/>
+      <c r="G333" s="91"/>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="8"/>
@@ -11615,7 +12377,7 @@
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
     </row>
-    <row r="440" spans="1:8" s="35" customFormat="1">
+    <row r="440" spans="1:8">
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -11623,9 +12385,8 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
-      <c r="H440" s="12"/>
-    </row>
-    <row r="441" spans="1:8" s="35" customFormat="1">
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -11633,9 +12394,8 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
-      <c r="H441" s="12"/>
-    </row>
-    <row r="442" spans="1:8" s="35" customFormat="1">
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -11643,9 +12403,8 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
       <c r="G442" s="8"/>
-      <c r="H442" s="12"/>
-    </row>
-    <row r="443" spans="1:8" s="35" customFormat="1">
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -11653,7 +12412,6 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
-      <c r="H443" s="12"/>
     </row>
     <row r="444" spans="1:8" s="35" customFormat="1">
       <c r="A444" s="8"/>
@@ -11675,40 +12433,44 @@
       <c r="G445" s="8"/>
       <c r="H445" s="12"/>
     </row>
-    <row r="446" spans="1:8" s="35" customFormat="1" ht="15.75">
-      <c r="A446" s="15"/>
-      <c r="B446" s="34"/>
-      <c r="C446" s="34"/>
-      <c r="D446" s="55"/>
-      <c r="E446" s="56"/>
-      <c r="F446" s="57"/>
+    <row r="446" spans="1:8" s="35" customFormat="1">
+      <c r="A446" s="8"/>
+      <c r="B446" s="8"/>
+      <c r="C446" s="8"/>
+      <c r="D446" s="8"/>
+      <c r="E446" s="8"/>
+      <c r="F446" s="8"/>
+      <c r="G446" s="8"/>
       <c r="H446" s="12"/>
     </row>
-    <row r="447" spans="1:8" s="35" customFormat="1" ht="15.75">
-      <c r="A447" s="15"/>
-      <c r="B447" s="34"/>
-      <c r="C447" s="34"/>
-      <c r="D447" s="55"/>
-      <c r="E447" s="56"/>
-      <c r="F447" s="57"/>
+    <row r="447" spans="1:8" s="35" customFormat="1">
+      <c r="A447" s="8"/>
+      <c r="B447" s="8"/>
+      <c r="C447" s="8"/>
+      <c r="D447" s="8"/>
+      <c r="E447" s="8"/>
+      <c r="F447" s="8"/>
+      <c r="G447" s="8"/>
       <c r="H447" s="12"/>
     </row>
-    <row r="448" spans="1:8" s="35" customFormat="1" ht="15.75">
-      <c r="A448" s="15"/>
-      <c r="B448" s="34"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="55"/>
-      <c r="E448" s="56"/>
-      <c r="F448" s="57"/>
+    <row r="448" spans="1:8" s="35" customFormat="1">
+      <c r="A448" s="8"/>
+      <c r="B448" s="8"/>
+      <c r="C448" s="8"/>
+      <c r="D448" s="8"/>
+      <c r="E448" s="8"/>
+      <c r="F448" s="8"/>
+      <c r="G448" s="8"/>
       <c r="H448" s="12"/>
     </row>
-    <row r="449" spans="1:8" s="35" customFormat="1" ht="15.75">
-      <c r="A449" s="15"/>
-      <c r="B449" s="34"/>
-      <c r="C449" s="34"/>
-      <c r="D449" s="55"/>
-      <c r="E449" s="56"/>
-      <c r="F449" s="57"/>
+    <row r="449" spans="1:8" s="35" customFormat="1">
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
+      <c r="C449" s="8"/>
+      <c r="D449" s="8"/>
+      <c r="E449" s="8"/>
+      <c r="F449" s="8"/>
+      <c r="G449" s="8"/>
       <c r="H449" s="12"/>
     </row>
     <row r="450" spans="1:8" s="35" customFormat="1" ht="15.75">
@@ -16256,37 +17018,41 @@
       <c r="F954" s="57"/>
       <c r="H954" s="12"/>
     </row>
-    <row r="955" spans="1:8" ht="15.75">
+    <row r="955" spans="1:8" s="35" customFormat="1" ht="15.75">
       <c r="A955" s="15"/>
       <c r="B955" s="34"/>
       <c r="C955" s="34"/>
       <c r="D955" s="55"/>
       <c r="E955" s="56"/>
       <c r="F955" s="57"/>
-    </row>
-    <row r="956" spans="1:8" ht="15.75">
+      <c r="H955" s="12"/>
+    </row>
+    <row r="956" spans="1:8" s="35" customFormat="1" ht="15.75">
       <c r="A956" s="15"/>
       <c r="B956" s="34"/>
       <c r="C956" s="34"/>
       <c r="D956" s="55"/>
       <c r="E956" s="56"/>
       <c r="F956" s="57"/>
-    </row>
-    <row r="957" spans="1:8" ht="15.75">
+      <c r="H956" s="12"/>
+    </row>
+    <row r="957" spans="1:8" s="35" customFormat="1" ht="15.75">
       <c r="A957" s="15"/>
       <c r="B957" s="34"/>
       <c r="C957" s="34"/>
       <c r="D957" s="55"/>
       <c r="E957" s="56"/>
       <c r="F957" s="57"/>
-    </row>
-    <row r="958" spans="1:8" ht="15.75">
+      <c r="H957" s="12"/>
+    </row>
+    <row r="958" spans="1:8" s="35" customFormat="1" ht="15.75">
       <c r="A958" s="15"/>
       <c r="B958" s="34"/>
       <c r="C958" s="34"/>
       <c r="D958" s="55"/>
       <c r="E958" s="56"/>
       <c r="F958" s="57"/>
+      <c r="H958" s="12"/>
     </row>
     <row r="959" spans="1:8" ht="15.75">
       <c r="A959" s="15"/>
@@ -16328,40 +17094,105 @@
       <c r="E963" s="56"/>
       <c r="F963" s="57"/>
     </row>
+    <row r="964" spans="1:6" ht="15.75">
+      <c r="A964" s="15"/>
+      <c r="B964" s="34"/>
+      <c r="C964" s="34"/>
+      <c r="D964" s="55"/>
+      <c r="E964" s="56"/>
+      <c r="F964" s="57"/>
+    </row>
+    <row r="965" spans="1:6" ht="15.75">
+      <c r="A965" s="15"/>
+      <c r="B965" s="34"/>
+      <c r="C965" s="34"/>
+      <c r="D965" s="55"/>
+      <c r="E965" s="56"/>
+      <c r="F965" s="57"/>
+    </row>
+    <row r="966" spans="1:6" ht="15.75">
+      <c r="A966" s="15"/>
+      <c r="B966" s="34"/>
+      <c r="C966" s="34"/>
+      <c r="D966" s="55"/>
+      <c r="E966" s="56"/>
+      <c r="F966" s="57"/>
+    </row>
+    <row r="967" spans="1:6" ht="15.75">
+      <c r="A967" s="15"/>
+      <c r="B967" s="34"/>
+      <c r="C967" s="34"/>
+      <c r="D967" s="55"/>
+      <c r="E967" s="56"/>
+      <c r="F967" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="B260:G260"/>
-    <mergeCell ref="B261:E261"/>
+  <mergeCells count="120">
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B326:G326"/>
+    <mergeCell ref="B333:G333"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:G276"/>
+    <mergeCell ref="B281:G281"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="B225:G225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="B234:E234"/>
+    <mergeCell ref="B248:G248"/>
     <mergeCell ref="B262:G262"/>
-    <mergeCell ref="B272:G272"/>
-    <mergeCell ref="B247:E247"/>
-    <mergeCell ref="B248:G248"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="B263:E263"/>
+    <mergeCell ref="B264:G264"/>
+    <mergeCell ref="B274:G274"/>
+    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="B250:G250"/>
     <mergeCell ref="B255:G255"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B241:G241"/>
-    <mergeCell ref="B246:G246"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B257:G257"/>
+    <mergeCell ref="B210:G210"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="B235:G235"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:G154"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:G113"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B72:G72"/>
@@ -16378,60 +17209,48 @@
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B45:G45"/>
     <mergeCell ref="B104:E104"/>
     <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:G154"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B207:G207"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:G217"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="B239:G239"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B231:G231"/>
-    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:G317"/>
+    <mergeCell ref="B324:G324"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:G310"/>
+    <mergeCell ref="B315:G315"/>
+    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B283:G283"/>
+    <mergeCell ref="B290:G290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:G292"/>
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B300:E300"/>
+    <mergeCell ref="B301:G301"/>
+    <mergeCell ref="B308:G308"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F446:F448 F453:F459 F672:F674 F662:F667 F464:F473 F478:F481 F486:F491 F496:F504 F509:F518 F523:F533 F538:F548 F564:F570 F592:F594 F553:F559 F575:F581 F586:F587 F599:F605 F610:F616 F632:F634 F621:F627 F639:F642 F647:F649 F654:F657 F243:F245 F27:F30 F227:F230 F219:F222 F211:F214 F203:F206 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F235:F238 F95:F97 F85:F87 F76:F78 F21:F22 F250:F252 F257:F259 F264:F271" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F450:F452 F457:F463 F676:F678 F666:F671 F468:F477 F482:F485 F490:F495 F500:F508 F513:F522 F527:F537 F542:F552 F568:F574 F596:F598 F557:F563 F579:F585 F590:F591 F603:F609 F614:F620 F636:F638 F625:F631 F643:F646 F651:F653 F658:F661 F245:F247 F27:F30 F229:F232 F220:F224 F212:F215 F203:F207 F195:F198 F187:F190 F179:F182 F171:F174 F163:F166 F156:F158 F147:F149 F139:F141 F131:F133 F123:F125 F115:F117 F107:F109 F69:F71 F61:F64 F55:F56 F49:F50 F42:F44 F35:F37 F237:F240 F95:F97 F85:F87 F76:F78 F21:F22 F252:F254 F259:F261 F266:F273 F278:F280 F285:F289 F294:F298 F303:F307 F312:F314 F319:F323 F328:F332" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
